--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <sheet name="REMISIONES    MAYO   2022  " sheetId="10" r:id="rId10"/>
     <sheet name="    J U N I O     2 0 2 2      " sheetId="11" r:id="rId11"/>
     <sheet name=" REMISIONES   JUNIO   2022   " sheetId="12" r:id="rId12"/>
-    <sheet name="Hoja2" sheetId="13" r:id="rId13"/>
+    <sheet name="    J U L I O     2 0 2 2     " sheetId="13" r:id="rId13"/>
+    <sheet name="Hoja1" sheetId="14" r:id="rId14"/>
+    <sheet name="Hoja3" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -383,8 +385,66 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ROUSS</author>
+  </authors>
+  <commentList>
+    <comment ref="J23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ROUSS:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="381">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1537,6 +1597,9 @@
   </si>
   <si>
     <t>JULIO</t>
+  </si>
+  <si>
+    <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    JULIO        2 0 2 2</t>
   </si>
 </sst>
 </file>
@@ -3380,6 +3443,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3461,39 +3557,6 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3506,10 +3569,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF800000"/>
       <color rgb="FFFF66CC"/>
-      <color rgb="FF99FF99"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -6080,6 +6143,432 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="12144374"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="1 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4991100" y="11649075"/>
+          <a:ext cx="533400" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="2 Conector recto de flecha">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="5076825" y="12144374"/>
+          <a:ext cx="152400" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2152650" y="11630025"/>
+          <a:ext cx="1781175" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Abrir llave 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="7648576" y="10763247"/>
+          <a:ext cx="200026" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 52985"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-MX" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>64250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1323990" cy="419708"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18916712">
+          <a:off x="0" y="12456275"/>
+          <a:ext cx="1323990" cy="419708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Rosy</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400" b="1" cap="none" spc="0" baseline="0">
+              <a:ln w="6600">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent2"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> Tellez</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1400" b="1" cap="none" spc="0">
+            <a:ln w="6600">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="0000FF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent2"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5000625" y="12477750"/>
+          <a:ext cx="923925" cy="1038225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6372,23 +6861,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6398,21 +6887,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="293" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6427,14 +6916,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="328"/>
-      <c r="H4" s="329" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="330"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6444,11 +6933,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="300" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="294"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -7949,11 +8438,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="302">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="304">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -7979,8 +8468,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="303"/>
-      <c r="N41" s="305"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8195,29 +8684,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="306" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="307"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="308">
+      <c r="K53" s="319">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="309"/>
-      <c r="M53" s="310">
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="311"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="312" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="312"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8228,22 +8717,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="313" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="313"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="314" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="315"/>
-      <c r="K55" s="316">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="317"/>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8274,11 +8763,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="318">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="319"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8295,22 +8784,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="295" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="296"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="297" t="s">
+      <c r="I59" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="298"/>
-      <c r="K59" s="299">
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="299"/>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -8454,12 +8943,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -8475,6 +8958,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9903,8 +10392,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9927,23 +10416,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -9953,21 +10442,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="293" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -9982,14 +10471,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="328"/>
-      <c r="H4" s="329" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="330"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -9999,11 +10488,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="300" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="294"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -11580,11 +12069,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="302">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="304">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -11616,8 +12105,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="303"/>
-      <c r="N41" s="305"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -11863,29 +12352,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="306" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="307"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="308">
+      <c r="K53" s="319">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="309"/>
-      <c r="M53" s="310">
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="311"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="312" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="312"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -11896,22 +12385,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="313" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="313"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-2747780.48</v>
       </c>
-      <c r="I55" s="314" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="315"/>
-      <c r="K55" s="316">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
         <v>375154.74000000011</v>
       </c>
-      <c r="L55" s="317"/>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -11942,11 +12431,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="318">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="319"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -11963,22 +12452,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="295" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="296"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="297" t="s">
+      <c r="I59" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="298"/>
-      <c r="K59" s="299">
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
         <v>225215.93000000011</v>
       </c>
-      <c r="L59" s="299"/>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12125,6 +12614,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12134,18 +12635,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13509,6 +13998,1881 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF99FF99"/>
+  </sheetPr>
+  <dimension ref="A1:U81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="116" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="2.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="12" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" style="244" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+    </row>
+    <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="294"/>
+      <c r="C2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="H3" s="299" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="299"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="R3" s="304" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17">
+        <v>232165.91</v>
+      </c>
+      <c r="D4" s="18">
+        <v>44745</v>
+      </c>
+      <c r="E4" s="300" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="303"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="311" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
+    </row>
+    <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="25">
+        <v>44746</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28">
+        <v>44746</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="30">
+        <v>44746</v>
+      </c>
+      <c r="I5" s="31"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="182"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="32">
+        <v>0</v>
+      </c>
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="34">
+        <f>N5+M5+L5+I5+C5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <f>P5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25">
+        <v>44747</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="28">
+        <v>44747</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="30">
+        <v>44747</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="32">
+        <v>0</v>
+      </c>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="34">
+        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="184">
+        <v>12372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25">
+        <v>44748</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="28">
+        <v>44748</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="30">
+        <v>44748</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="32">
+        <v>0</v>
+      </c>
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <f t="shared" ref="Q7:Q40" si="1">P7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25">
+        <v>44749</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="28">
+        <v>44749</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="30">
+        <v>44749</v>
+      </c>
+      <c r="I8" s="31"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="32">
+        <v>0</v>
+      </c>
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="184">
+        <v>12761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25">
+        <v>44750</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="28">
+        <v>44750</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="30">
+        <v>44750</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="32">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25">
+        <v>44751</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="28">
+        <v>44751</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="30">
+        <v>44751</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="32">
+        <v>0</v>
+      </c>
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25">
+        <v>44752</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="28">
+        <v>44752</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="30">
+        <v>44752</v>
+      </c>
+      <c r="I11" s="31"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="32">
+        <v>0</v>
+      </c>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="34">
+        <f>N11+M11+L11+I11+C11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25">
+        <v>44753</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="28">
+        <v>44753</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="30">
+        <v>44753</v>
+      </c>
+      <c r="I12" s="31"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="32">
+        <v>0</v>
+      </c>
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25">
+        <v>44754</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="28">
+        <v>44754</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="30">
+        <v>44754</v>
+      </c>
+      <c r="I13" s="31"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="185"/>
+    </row>
+    <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25">
+        <v>44755</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="28">
+        <v>44755</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="30">
+        <v>44755</v>
+      </c>
+      <c r="I14" s="31"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="32">
+        <v>0</v>
+      </c>
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="185"/>
+    </row>
+    <row r="15" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25">
+        <v>44756</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="28">
+        <v>44756</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="30">
+        <v>44756</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="32">
+        <v>0</v>
+      </c>
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25">
+        <v>44757</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="28">
+        <v>44757</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="30">
+        <v>44757</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="32">
+        <v>0</v>
+      </c>
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25">
+        <v>44758</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="28">
+        <v>44758</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="30">
+        <v>44758</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="32">
+        <v>0</v>
+      </c>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25">
+        <v>44759</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="28">
+        <v>44759</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="30">
+        <v>44759</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="32">
+        <v>0</v>
+      </c>
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="P18" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25">
+        <v>44760</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="28">
+        <v>44760</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="30">
+        <v>44760</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="32">
+        <v>0</v>
+      </c>
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25">
+        <v>44761</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="28">
+        <v>44761</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="30">
+        <v>44761</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="32">
+        <v>0</v>
+      </c>
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="P20" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25">
+        <v>44762</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="28">
+        <v>44762</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="30">
+        <v>44762</v>
+      </c>
+      <c r="I21" s="31"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="32">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="P21" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25">
+        <v>44763</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="28">
+        <v>44763</v>
+      </c>
+      <c r="F22" s="29"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="30">
+        <v>44763</v>
+      </c>
+      <c r="I22" s="31"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="32">
+        <v>0</v>
+      </c>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="P22" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25">
+        <v>44764</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="28">
+        <v>44764</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="30">
+        <v>44764</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="32">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="P23" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25">
+        <v>44765</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="28">
+        <v>44765</v>
+      </c>
+      <c r="F24" s="29"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="30">
+        <v>44765</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="181"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="32">
+        <v>0</v>
+      </c>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="P24" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25">
+        <v>44766</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="28">
+        <v>44766</v>
+      </c>
+      <c r="F25" s="29"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="30">
+        <v>44766</v>
+      </c>
+      <c r="I25" s="31"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="290"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="32">
+        <v>0</v>
+      </c>
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>8</v>
+      </c>
+      <c r="P25" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="24"/>
+      <c r="B26" s="25">
+        <v>44767</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="28">
+        <v>44767</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="30">
+        <v>44767</v>
+      </c>
+      <c r="I26" s="31"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="32">
+        <v>0</v>
+      </c>
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="P26" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="25">
+        <v>44768</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="28">
+        <v>44768</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="30">
+        <v>44768</v>
+      </c>
+      <c r="I27" s="31"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="32">
+        <v>0</v>
+      </c>
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25">
+        <v>44769</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="28">
+        <v>44769</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="30">
+        <v>44769</v>
+      </c>
+      <c r="I28" s="31"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="32">
+        <v>0</v>
+      </c>
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="25">
+        <v>44770</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="28">
+        <v>44770</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="30">
+        <v>44770</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="32">
+        <v>0</v>
+      </c>
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25">
+        <v>44771</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="28">
+        <v>44771</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="30">
+        <v>44771</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="32">
+        <v>0</v>
+      </c>
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="P30" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25">
+        <v>44772</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="28">
+        <v>44772</v>
+      </c>
+      <c r="F31" s="29"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="30">
+        <v>44772</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="32">
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="P31" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="24"/>
+      <c r="B32" s="25">
+        <v>44773</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="28">
+        <v>44773</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="30">
+        <v>44773</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="P32" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="32">
+        <v>0</v>
+      </c>
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="P33" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="32">
+        <v>0</v>
+      </c>
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="P34" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="32">
+        <v>0</v>
+      </c>
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="P35" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="9"/>
+    </row>
+    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="221"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="32">
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <v>0</v>
+      </c>
+      <c r="P36" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="9"/>
+    </row>
+    <row r="37" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="24"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="32">
+        <v>0</v>
+      </c>
+      <c r="N37" s="33">
+        <v>0</v>
+      </c>
+      <c r="P37" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="24"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="32">
+        <v>0</v>
+      </c>
+      <c r="N38" s="33">
+        <v>0</v>
+      </c>
+      <c r="P38" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="24"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="276"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="32">
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <v>0</v>
+      </c>
+      <c r="P39" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="313">
+        <f>SUM(M5:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="315">
+        <f>SUM(N5:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="34">
+        <f>SUM(P5:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="259"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="260"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="245"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="24"/>
+      <c r="B42" s="159"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="262"/>
+      <c r="F42" s="245"/>
+      <c r="G42" s="261"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="97"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="24"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="262"/>
+      <c r="F43" s="245"/>
+      <c r="G43" s="261"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="95"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="97"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="24"/>
+      <c r="B44" s="159"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="262"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="261"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="73"/>
+      <c r="K44" s="137"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="97"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24"/>
+      <c r="B45" s="159"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="262"/>
+      <c r="F45" s="245"/>
+      <c r="G45" s="261"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="97"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="24"/>
+      <c r="B46" s="263"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="291"/>
+      <c r="F46" s="245"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="95"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="292"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="97"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="291"/>
+      <c r="F47" s="245"/>
+      <c r="G47" s="261"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="97"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="291"/>
+      <c r="F48" s="245"/>
+      <c r="G48" s="261"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="73"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="96"/>
+      <c r="N48" s="97"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="291"/>
+      <c r="F49" s="245"/>
+      <c r="G49" s="261"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="95"/>
+      <c r="J49" s="73"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="96"/>
+      <c r="N49" s="97"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="26">
+        <v>0</v>
+      </c>
+      <c r="D50" s="99"/>
+      <c r="E50" s="100"/>
+      <c r="F50" s="90"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="95"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="33"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="9"/>
+    </row>
+    <row r="51" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="106">
+        <f>SUM(C5:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="107"/>
+      <c r="E51" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="109">
+        <f>SUM(F5:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="107"/>
+      <c r="H51" s="110" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="111">
+        <f>SUM(I5:I50)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="112"/>
+      <c r="K51" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="114">
+        <f>SUM(L5:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="9"/>
+    </row>
+    <row r="52" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="9"/>
+    </row>
+    <row r="53" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="117"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="1"/>
+      <c r="H53" s="317" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="318"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="319">
+        <f>I51+L51</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
+        <f>N40+M40</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="322"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="9"/>
+    </row>
+    <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D54" s="323" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="323"/>
+      <c r="F54" s="120">
+        <f>F51-K53-C51</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="9"/>
+    </row>
+    <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D55" s="324" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="324"/>
+      <c r="F55" s="115">
+        <v>0</v>
+      </c>
+      <c r="I55" s="325" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
+        <f>F57+F58+F59</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="328"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="9"/>
+    </row>
+    <row r="56" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D56" s="123"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="124">
+        <v>0</v>
+      </c>
+      <c r="I56" s="125"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="128"/>
+    </row>
+    <row r="57" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="115">
+        <f>SUM(F54:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="24"/>
+      <c r="I57" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="130"/>
+      <c r="K57" s="329">
+        <f>-C4</f>
+        <v>-232165.91</v>
+      </c>
+      <c r="L57" s="330"/>
+    </row>
+    <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="131" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C59" s="133"/>
+      <c r="D59" s="306" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="307"/>
+      <c r="F59" s="134">
+        <v>0</v>
+      </c>
+      <c r="I59" s="308" t="s">
+        <v>168</v>
+      </c>
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
+        <f>K55+K57</f>
+        <v>-232165.91</v>
+      </c>
+      <c r="L59" s="310"/>
+    </row>
+    <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C60" s="135"/>
+      <c r="D60" s="136"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="138"/>
+      <c r="J60" s="139"/>
+    </row>
+    <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="141"/>
+      <c r="L61" s="141"/>
+    </row>
+    <row r="62" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="142"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="34"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="141"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="117"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="142"/>
+      <c r="C63" s="146"/>
+      <c r="E63" s="34"/>
+      <c r="M63" s="145"/>
+      <c r="N63" s="117"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="142"/>
+      <c r="C64" s="146"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="147"/>
+      <c r="L64" s="148"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="142"/>
+      <c r="C65" s="146"/>
+      <c r="E65" s="34"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="142"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="150"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D67" s="149"/>
+      <c r="E67" s="151"/>
+      <c r="F67" s="34"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D68" s="149"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="34"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D69" s="149"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="34"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D70" s="149"/>
+      <c r="E70" s="151"/>
+      <c r="F70" s="34"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D71" s="149"/>
+      <c r="E71" s="151"/>
+      <c r="F71" s="34"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D72" s="149"/>
+      <c r="E72" s="151"/>
+      <c r="F72" s="34"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D73" s="149"/>
+      <c r="E73" s="151"/>
+      <c r="F73" s="34"/>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D74" s="149"/>
+      <c r="E74" s="151"/>
+      <c r="F74" s="34"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D75" s="149"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="34"/>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D76" s="149"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="34"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D77" s="149"/>
+      <c r="E77" s="151"/>
+      <c r="F77" s="34"/>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D78" s="149"/>
+      <c r="E78" s="151"/>
+      <c r="F78" s="34"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D79" s="149"/>
+      <c r="E79" s="149"/>
+      <c r="F79" s="150"/>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D80" s="149"/>
+      <c r="E80" s="149"/>
+      <c r="F80" s="150"/>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="149"/>
+      <c r="E81" s="149"/>
+      <c r="F81" s="150"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+  </mergeCells>
+  <pageMargins left="0.32" right="0.26" top="0.37" bottom="0.37" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -15329,23 +17693,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -15355,21 +17719,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="293" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -15384,14 +17748,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="328"/>
-      <c r="H4" s="329" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="330"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -15401,11 +17765,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="300" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="294"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -16893,7 +19257,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="304">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -16919,8 +19283,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="303"/>
-      <c r="N41" s="305"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -17135,29 +19499,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="306" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="307"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="308">
+      <c r="K53" s="319">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="309"/>
-      <c r="M53" s="310">
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="311"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="312" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="312"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -17168,22 +19532,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="313" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="313"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="314" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="315"/>
-      <c r="K55" s="316">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="317"/>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -17214,11 +19578,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="318">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="319"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -17235,22 +19599,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="295" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="296"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="297" t="s">
+      <c r="I59" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="298"/>
-      <c r="K59" s="299">
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="299"/>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -17394,18 +19758,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -17415,6 +19767,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -18719,23 +21083,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -18745,21 +21109,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="293" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -18774,14 +21138,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="328"/>
-      <c r="H4" s="329" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="330"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18791,11 +21155,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="300" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="294"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -20293,11 +22657,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="302">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="304">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -20323,8 +22687,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="303"/>
-      <c r="N41" s="305"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -20467,29 +22831,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="306" t="s">
+      <c r="H49" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="307"/>
+      <c r="I49" s="318"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="308">
+      <c r="K49" s="319">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="309"/>
-      <c r="M49" s="310">
+      <c r="L49" s="320"/>
+      <c r="M49" s="321">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="311"/>
+      <c r="N49" s="322"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="312" t="s">
+      <c r="D50" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="312"/>
+      <c r="E50" s="323"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -20500,22 +22864,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="313" t="s">
+      <c r="D51" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="313"/>
+      <c r="E51" s="324"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="314" t="s">
+      <c r="I51" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="315"/>
-      <c r="K51" s="316">
+      <c r="J51" s="326"/>
+      <c r="K51" s="327">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="317"/>
+      <c r="L51" s="328"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -20546,11 +22910,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="318">
+      <c r="K53" s="329">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="319"/>
+      <c r="L53" s="330"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -20567,22 +22931,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="295" t="s">
+      <c r="D55" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="296"/>
+      <c r="E55" s="307"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="297" t="s">
+      <c r="I55" s="308" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="298"/>
-      <c r="K55" s="299">
+      <c r="J55" s="309"/>
+      <c r="K55" s="310">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="299"/>
+      <c r="L55" s="310"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -20729,6 +23093,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20738,18 +23114,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22224,23 +24588,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22250,21 +24614,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="293" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -22279,14 +24643,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="328"/>
-      <c r="H4" s="329" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="330"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -22296,11 +24660,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="300" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="294"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -23944,11 +26308,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="302">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="304">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -23980,8 +26344,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="303"/>
-      <c r="N41" s="305"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -24216,29 +26580,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="306" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="307"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="308">
+      <c r="K53" s="319">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="309"/>
-      <c r="M53" s="310">
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="311"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="312" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="312"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -24249,22 +26613,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="313" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="313"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="314" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="315"/>
-      <c r="K55" s="316">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="317"/>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -24295,11 +26659,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="318">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="319"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -24316,22 +26680,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="295" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="296"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="297" t="s">
+      <c r="I59" s="308" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="298"/>
-      <c r="K59" s="299">
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="299"/>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -24478,6 +26842,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24487,18 +26863,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26002,23 +28366,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="320"/>
-      <c r="C1" s="322" t="s">
+      <c r="B1" s="293"/>
+      <c r="C1" s="295" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="323"/>
-      <c r="E1" s="323"/>
-      <c r="F1" s="323"/>
-      <c r="G1" s="323"/>
-      <c r="H1" s="323"/>
-      <c r="I1" s="323"/>
-      <c r="J1" s="323"/>
-      <c r="K1" s="323"/>
-      <c r="L1" s="323"/>
-      <c r="M1" s="323"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="321"/>
+      <c r="B2" s="294"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26028,21 +28392,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="324" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="325"/>
+      <c r="B3" s="297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="298"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="326" t="s">
+      <c r="H3" s="299" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="326"/>
+      <c r="I3" s="299"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="293" t="s">
+      <c r="R3" s="304" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26057,14 +28421,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="327" t="s">
+      <c r="E4" s="300" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="328"/>
-      <c r="H4" s="329" t="s">
+      <c r="F4" s="301"/>
+      <c r="H4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="330"/>
+      <c r="I4" s="303"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -26074,11 +28438,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="300" t="s">
+      <c r="P4" s="311" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="294"/>
+      <c r="Q4" s="312"/>
+      <c r="R4" s="305"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -27642,11 +30006,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="302">
+      <c r="M40" s="313">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="304">
+      <c r="N40" s="315">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -27672,8 +30036,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="303"/>
-      <c r="N41" s="305"/>
+      <c r="M41" s="314"/>
+      <c r="N41" s="316"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -27888,29 +30252,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="306" t="s">
+      <c r="H53" s="317" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="307"/>
+      <c r="I53" s="318"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="308">
+      <c r="K53" s="319">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="309"/>
-      <c r="M53" s="310">
+      <c r="L53" s="320"/>
+      <c r="M53" s="321">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="311"/>
+      <c r="N53" s="322"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="312" t="s">
+      <c r="D54" s="323" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="312"/>
+      <c r="E54" s="323"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -27921,22 +30285,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="313" t="s">
+      <c r="D55" s="324" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="313"/>
+      <c r="E55" s="324"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="314" t="s">
+      <c r="I55" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="315"/>
-      <c r="K55" s="316">
+      <c r="J55" s="326"/>
+      <c r="K55" s="327">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="317"/>
+      <c r="L55" s="328"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -27967,11 +30331,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="318">
+      <c r="K57" s="329">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="319"/>
+      <c r="L57" s="330"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -27988,22 +30352,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="295" t="s">
+      <c r="D59" s="306" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="296"/>
+      <c r="E59" s="307"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="297" t="s">
+      <c r="I59" s="308" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="298"/>
-      <c r="K59" s="299">
+      <c r="J59" s="309"/>
+      <c r="K59" s="310">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="299"/>
+      <c r="L59" s="310"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -28150,18 +30514,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28171,6 +30523,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="385">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1600,6 +1600,18 @@
   </si>
   <si>
     <t>BALANCE      ABASTO 4 CARNES    H E R R A D U R A    JULIO        2 0 2 2</t>
+  </si>
+  <si>
+    <t>NOMINA # 28</t>
+  </si>
+  <si>
+    <t>LONGANIZA-TOSTADAS-TOTOPOS-CHORIZO</t>
+  </si>
+  <si>
+    <t>CHORIZO--LONGANIZA</t>
+  </si>
+  <si>
+    <t>SALMON</t>
   </si>
 </sst>
 </file>
@@ -2907,7 +2919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3443,39 +3455,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3555,6 +3535,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6861,23 +6874,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="293"/>
-      <c r="C1" s="295" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="323" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="294"/>
+      <c r="B2" s="322"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6887,21 +6900,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="298"/>
+      <c r="B3" s="325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="326"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="299" t="s">
+      <c r="H3" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="299"/>
+      <c r="I3" s="327"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="304" t="s">
+      <c r="R3" s="294" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6916,14 +6929,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="301"/>
-      <c r="H4" s="302" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="303"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6933,11 +6946,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="305"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="295"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -8438,11 +8451,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="313">
+      <c r="M40" s="303">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="315">
+      <c r="N40" s="305">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -8468,8 +8481,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="314"/>
-      <c r="N41" s="316"/>
+      <c r="M41" s="304"/>
+      <c r="N41" s="306"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8684,29 +8697,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="317" t="s">
+      <c r="H53" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="318"/>
+      <c r="I53" s="308"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="319">
+      <c r="K53" s="309">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="320"/>
-      <c r="M53" s="321">
+      <c r="L53" s="310"/>
+      <c r="M53" s="311">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="322"/>
+      <c r="N53" s="312"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="323" t="s">
+      <c r="D54" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="323"/>
+      <c r="E54" s="313"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8717,22 +8730,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="324" t="s">
+      <c r="D55" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="324"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="325" t="s">
+      <c r="I55" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="326"/>
-      <c r="K55" s="327">
+      <c r="J55" s="316"/>
+      <c r="K55" s="317">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="328"/>
+      <c r="L55" s="318"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8763,11 +8776,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="329">
+      <c r="K57" s="319">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="330"/>
+      <c r="L57" s="320"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8784,22 +8797,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="306" t="s">
+      <c r="D59" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="307"/>
+      <c r="E59" s="297"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="308" t="s">
+      <c r="I59" s="298" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="309"/>
-      <c r="K59" s="310">
+      <c r="J59" s="299"/>
+      <c r="K59" s="300">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="310"/>
+      <c r="L59" s="300"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -8943,6 +8956,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -8958,12 +8977,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10416,23 +10429,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="293"/>
-      <c r="C1" s="295" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="323" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="294"/>
+      <c r="B2" s="322"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10442,21 +10455,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="298"/>
+      <c r="B3" s="325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="326"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="299" t="s">
+      <c r="H3" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="299"/>
+      <c r="I3" s="327"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="304" t="s">
+      <c r="R3" s="294" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10471,14 +10484,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="301"/>
-      <c r="H4" s="302" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="303"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10488,11 +10501,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="305"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="295"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12069,11 +12082,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="313">
+      <c r="M40" s="303">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="315">
+      <c r="N40" s="305">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12105,8 +12118,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="314"/>
-      <c r="N41" s="316"/>
+      <c r="M41" s="304"/>
+      <c r="N41" s="306"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12352,29 +12365,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="317" t="s">
+      <c r="H53" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="318"/>
+      <c r="I53" s="308"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="319">
+      <c r="K53" s="309">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="320"/>
-      <c r="M53" s="321">
+      <c r="L53" s="310"/>
+      <c r="M53" s="311">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="322"/>
+      <c r="N53" s="312"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="323" t="s">
+      <c r="D54" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="323"/>
+      <c r="E54" s="313"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -12385,22 +12398,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="324" t="s">
+      <c r="D55" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="324"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="115">
         <v>-2747780.48</v>
       </c>
-      <c r="I55" s="325" t="s">
+      <c r="I55" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="326"/>
-      <c r="K55" s="327">
+      <c r="J55" s="316"/>
+      <c r="K55" s="317">
         <f>F57+F58+F59</f>
         <v>375154.74000000011</v>
       </c>
-      <c r="L55" s="328"/>
+      <c r="L55" s="318"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12431,11 +12444,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="329">
+      <c r="K57" s="319">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="330"/>
+      <c r="L57" s="320"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12452,22 +12465,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="306" t="s">
+      <c r="D59" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="307"/>
+      <c r="E59" s="297"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="308" t="s">
+      <c r="I59" s="298" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="309"/>
-      <c r="K59" s="310">
+      <c r="J59" s="299"/>
+      <c r="K59" s="300">
         <f>K55+K57</f>
         <v>225215.93000000011</v>
       </c>
-      <c r="L59" s="310"/>
+      <c r="L59" s="300"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12614,18 +12627,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12635,6 +12636,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14004,8 +14017,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14028,23 +14041,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="293"/>
-      <c r="C1" s="295" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="323" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="294"/>
+      <c r="B2" s="322"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14054,21 +14067,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="298"/>
+      <c r="B3" s="325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="326"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="299" t="s">
+      <c r="H3" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="299"/>
+      <c r="I3" s="327"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="304" t="s">
+      <c r="R3" s="294" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14083,14 +14096,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="301"/>
-      <c r="H4" s="302" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="303"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14100,11 +14113,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="305"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="295"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -14113,22 +14126,29 @@
       <c r="B5" s="25">
         <v>44746</v>
       </c>
-      <c r="C5" s="26"/>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
       <c r="D5" s="27"/>
       <c r="E5" s="28">
         <v>44746</v>
       </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="29">
+        <v>75721</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="30">
         <v>44746</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="31">
+        <v>29</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="182"/>
       <c r="L5" s="9"/>
       <c r="M5" s="32">
-        <v>0</v>
+        <f>200+15000+69475</f>
+        <v>84675</v>
       </c>
       <c r="N5" s="33">
         <v>0</v>
@@ -14136,35 +14156,45 @@
       <c r="O5" s="2"/>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>84704</v>
       </c>
       <c r="Q5" s="13">
-        <f>P5-F5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="293">
+        <v>8983</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="24"/>
       <c r="B6" s="25">
         <v>44747</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="36"/>
+      <c r="C6" s="26">
+        <v>2220</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="28">
         <v>44747</v>
       </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="29">
+        <v>64337</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="30">
         <v>44747</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="31">
+        <v>15</v>
+      </c>
       <c r="J6" s="38"/>
       <c r="K6" s="39"/>
       <c r="L6" s="40"/>
       <c r="M6" s="32">
-        <v>0</v>
+        <f>20000+52612</f>
+        <v>72612</v>
       </c>
       <c r="N6" s="33">
         <v>0</v>
@@ -14172,13 +14202,13 @@
       <c r="O6" s="2"/>
       <c r="P6" s="34">
         <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>74847</v>
       </c>
       <c r="Q6" s="13">
         <v>0</v>
       </c>
       <c r="R6" s="184">
-        <v>12372</v>
+        <v>10510</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14186,30 +14216,37 @@
       <c r="B7" s="25">
         <v>44748</v>
       </c>
-      <c r="C7" s="26"/>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
       <c r="D7" s="41"/>
       <c r="E7" s="28">
         <v>44748</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="29">
+        <v>55285</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="30">
         <v>44748</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="31">
+        <v>135</v>
+      </c>
       <c r="J7" s="38"/>
       <c r="K7" s="42"/>
       <c r="L7" s="40"/>
       <c r="M7" s="32">
-        <v>0</v>
+        <f>44893+10000</f>
+        <v>54893</v>
       </c>
       <c r="N7" s="33">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55285</v>
       </c>
       <c r="Q7" s="13">
         <f t="shared" ref="Q7:Q40" si="1">P7-F7</f>
@@ -14222,67 +14259,82 @@
       <c r="B8" s="25">
         <v>44749</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="26">
+        <v>31689</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>49</v>
+      </c>
       <c r="E8" s="28">
         <v>44749</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="29">
+        <v>67572</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="30">
         <v>44749</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="31">
+        <v>61</v>
+      </c>
       <c r="J8" s="44"/>
       <c r="K8" s="45"/>
       <c r="L8" s="40"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <f>20000+15529</f>
+        <v>35529</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67572</v>
       </c>
       <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="184">
-        <v>12761</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24"/>
       <c r="B9" s="25">
         <v>44750</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
       <c r="D9" s="41"/>
       <c r="E9" s="28">
         <v>44750</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="29">
+        <v>87563</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="30">
         <v>44750</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="31">
+        <v>50</v>
+      </c>
       <c r="J9" s="38"/>
       <c r="K9" s="46"/>
       <c r="L9" s="40"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <f>20000+63428</f>
+        <v>83428</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
+        <v>4085</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87563</v>
       </c>
       <c r="Q9" s="13">
         <f t="shared" si="1"/>
@@ -14295,36 +14347,50 @@
       <c r="B10" s="25">
         <v>44751</v>
       </c>
-      <c r="C10" s="26"/>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
       <c r="D10" s="36"/>
       <c r="E10" s="28">
         <v>44751</v>
       </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="29">
+        <v>74393</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="30">
         <v>44751</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="48"/>
+      <c r="I10" s="31">
+        <v>65</v>
+      </c>
+      <c r="J10" s="38">
+        <v>44751</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="L10" s="48">
+        <v>10713</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <f>35000+37489</f>
+        <v>72489</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>7126</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90393</v>
       </c>
       <c r="Q10" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="184">
+        <v>16000</v>
+      </c>
       <c r="U10" t="s">
         <v>8</v>
       </c>
@@ -14334,30 +14400,39 @@
       <c r="B11" s="25">
         <v>44752</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="26">
+        <v>1268</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>382</v>
+      </c>
       <c r="E11" s="28">
         <v>44752</v>
       </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <v>96836</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="30">
         <v>44752</v>
       </c>
-      <c r="I11" s="31"/>
+      <c r="I11" s="31">
+        <v>20</v>
+      </c>
       <c r="J11" s="44"/>
       <c r="K11" s="49"/>
       <c r="L11" s="40"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <f>13658+80000</f>
+        <v>93658</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="34">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>96836</v>
       </c>
       <c r="Q11" s="13">
         <f t="shared" si="1"/>
@@ -14372,58 +14447,78 @@
       <c r="B12" s="25">
         <v>44753</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="36"/>
+      <c r="C12" s="26">
+        <v>3860</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>383</v>
+      </c>
       <c r="E12" s="28">
         <v>44753</v>
       </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29">
+        <v>72261</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="30">
         <v>44753</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31">
+        <v>104</v>
+      </c>
       <c r="J12" s="38"/>
       <c r="K12" s="50"/>
       <c r="L12" s="40"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <f>23000+41297</f>
+        <v>64297</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72261</v>
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" s="9"/>
+      <c r="R12" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24"/>
       <c r="B13" s="25">
         <v>44754</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="41"/>
+      <c r="C13" s="26">
+        <v>1550</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>384</v>
+      </c>
       <c r="E13" s="28">
         <v>44754</v>
       </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="29">
+        <v>61151</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="30">
         <v>44754</v>
       </c>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>28</v>
+      </c>
       <c r="J13" s="38"/>
       <c r="K13" s="39"/>
       <c r="L13" s="40"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <f>20000+42573</f>
+        <v>62573</v>
       </c>
       <c r="N13" s="33">
         <v>0</v>
@@ -14431,43 +14526,50 @@
       <c r="O13" s="2"/>
       <c r="P13" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64151</v>
       </c>
       <c r="Q13" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="185"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="184">
+        <v>3000</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24"/>
       <c r="B14" s="25">
         <v>44755</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="26">
+        <v>0</v>
+      </c>
       <c r="D14" s="51"/>
       <c r="E14" s="28">
         <v>44755</v>
       </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="29">
+        <v>29742</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="30">
         <v>44755</v>
       </c>
-      <c r="I14" s="31"/>
+      <c r="I14" s="31">
+        <v>122</v>
+      </c>
       <c r="J14" s="38"/>
       <c r="K14" s="45"/>
       <c r="L14" s="40"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <v>29097</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29742</v>
       </c>
       <c r="Q14" s="13">
         <f t="shared" si="1"/>
@@ -14480,7 +14582,9 @@
       <c r="B15" s="25">
         <v>44756</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="26">
+        <v>0</v>
+      </c>
       <c r="D15" s="51"/>
       <c r="E15" s="28">
         <v>44756</v>
@@ -14515,7 +14619,9 @@
       <c r="B16" s="25">
         <v>44757</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="26">
+        <v>0</v>
+      </c>
       <c r="D16" s="36"/>
       <c r="E16" s="28">
         <v>44757</v>
@@ -14552,7 +14658,9 @@
       <c r="B17" s="25">
         <v>44758</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="26">
+        <v>0</v>
+      </c>
       <c r="D17" s="41"/>
       <c r="E17" s="28">
         <v>44758</v>
@@ -14587,7 +14695,9 @@
       <c r="B18" s="25">
         <v>44759</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="26">
+        <v>0</v>
+      </c>
       <c r="D18" s="36"/>
       <c r="E18" s="28">
         <v>44759</v>
@@ -14622,7 +14732,9 @@
       <c r="B19" s="25">
         <v>44760</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
       <c r="D19" s="36"/>
       <c r="E19" s="28">
         <v>44760</v>
@@ -14658,7 +14770,9 @@
       <c r="B20" s="25">
         <v>44761</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
       <c r="D20" s="36"/>
       <c r="E20" s="28">
         <v>44761</v>
@@ -14693,7 +14807,9 @@
       <c r="B21" s="25">
         <v>44762</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
       <c r="D21" s="36"/>
       <c r="E21" s="28">
         <v>44762</v>
@@ -14728,7 +14844,9 @@
       <c r="B22" s="25">
         <v>44763</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
       <c r="D22" s="36"/>
       <c r="E22" s="28">
         <v>44763</v>
@@ -14763,7 +14881,9 @@
       <c r="B23" s="25">
         <v>44764</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
       <c r="D23" s="36"/>
       <c r="E23" s="28">
         <v>44764</v>
@@ -14798,7 +14918,9 @@
       <c r="B24" s="25">
         <v>44765</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
       <c r="D24" s="41"/>
       <c r="E24" s="28">
         <v>44765</v>
@@ -14833,7 +14955,9 @@
       <c r="B25" s="25">
         <v>44766</v>
       </c>
-      <c r="C25" s="26"/>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
       <c r="D25" s="36"/>
       <c r="E25" s="28">
         <v>44766</v>
@@ -14871,7 +14995,9 @@
       <c r="B26" s="25">
         <v>44767</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
       <c r="D26" s="36"/>
       <c r="E26" s="28">
         <v>44767</v>
@@ -14906,7 +15032,9 @@
       <c r="B27" s="25">
         <v>44768</v>
       </c>
-      <c r="C27" s="26"/>
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
       <c r="D27" s="41"/>
       <c r="E27" s="28">
         <v>44768</v>
@@ -14941,7 +15069,9 @@
       <c r="B28" s="25">
         <v>44769</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="26">
+        <v>0</v>
+      </c>
       <c r="D28" s="41"/>
       <c r="E28" s="28">
         <v>44769</v>
@@ -14976,7 +15106,9 @@
       <c r="B29" s="25">
         <v>44770</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="26">
+        <v>0</v>
+      </c>
       <c r="D29" s="71"/>
       <c r="E29" s="28">
         <v>44770</v>
@@ -15011,7 +15143,9 @@
       <c r="B30" s="25">
         <v>44771</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="26">
+        <v>0</v>
+      </c>
       <c r="D30" s="71"/>
       <c r="E30" s="28">
         <v>44771</v>
@@ -15046,7 +15180,9 @@
       <c r="B31" s="25">
         <v>44772</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="26">
+        <v>0</v>
+      </c>
       <c r="D31" s="83"/>
       <c r="E31" s="28">
         <v>44772</v>
@@ -15081,7 +15217,9 @@
       <c r="B32" s="25">
         <v>44773</v>
       </c>
-      <c r="C32" s="26"/>
+      <c r="C32" s="26">
+        <v>0</v>
+      </c>
       <c r="D32" s="78"/>
       <c r="E32" s="28">
         <v>44773</v>
@@ -15328,21 +15466,21 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="313">
+      <c r="M40" s="303">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="315">
+        <v>653251</v>
+      </c>
+      <c r="N40" s="305">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>18174</v>
       </c>
       <c r="P40" s="34">
         <f>SUM(P5:P39)</f>
-        <v>0</v>
+        <v>723354</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>723354</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15358,8 +15496,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="314"/>
-      <c r="N41" s="316"/>
+      <c r="M41" s="304"/>
+      <c r="N41" s="306"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -15532,7 +15670,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>0</v>
+        <v>40587</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -15540,7 +15678,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>0</v>
+        <v>684861</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -15548,7 +15686,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -15556,7 +15694,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>0</v>
+        <v>10713</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -15574,32 +15712,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="317" t="s">
+      <c r="H53" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="318"/>
+      <c r="I53" s="308"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="319">
+      <c r="K53" s="309">
         <f>I51+L51</f>
-        <v>0</v>
-      </c>
-      <c r="L53" s="320"/>
-      <c r="M53" s="321">
+        <v>11342</v>
+      </c>
+      <c r="L53" s="310"/>
+      <c r="M53" s="311">
         <f>N40+M40</f>
-        <v>0</v>
-      </c>
-      <c r="N53" s="322"/>
+        <v>671425</v>
+      </c>
+      <c r="N53" s="312"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="323" t="s">
+      <c r="D54" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="323"/>
+      <c r="E54" s="313"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>0</v>
+        <v>632932</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -15607,22 +15745,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="324" t="s">
+      <c r="D55" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="324"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="325" t="s">
+      <c r="I55" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="326"/>
-      <c r="K55" s="327">
+      <c r="J55" s="316"/>
+      <c r="K55" s="317">
         <f>F57+F58+F59</f>
-        <v>0</v>
-      </c>
-      <c r="L55" s="328"/>
+        <v>632932</v>
+      </c>
+      <c r="L55" s="318"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -15646,18 +15784,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>0</v>
+        <v>632932</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="329">
+      <c r="K57" s="319">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="330"/>
+      <c r="L57" s="320"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -15672,22 +15810,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="306" t="s">
+      <c r="D59" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="307"/>
+      <c r="E59" s="297"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="308" t="s">
+      <c r="I59" s="298" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="309"/>
-      <c r="K59" s="310">
+      <c r="J59" s="299"/>
+      <c r="K59" s="300">
         <f>K55+K57</f>
-        <v>-232165.91</v>
-      </c>
-      <c r="L59" s="310"/>
+        <v>400766.08999999997</v>
+      </c>
+      <c r="L59" s="300"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -15831,6 +15969,20 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
@@ -15838,20 +15990,6 @@
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
     <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="P4:Q4"/>
   </mergeCells>
   <pageMargins left="0.32" right="0.26" top="0.37" bottom="0.37" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17693,23 +17831,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="293"/>
-      <c r="C1" s="295" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="323" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="294"/>
+      <c r="B2" s="322"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17719,21 +17857,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="298"/>
+      <c r="B3" s="325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="326"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="299" t="s">
+      <c r="H3" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="299"/>
+      <c r="I3" s="327"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="304" t="s">
+      <c r="R3" s="294" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17748,14 +17886,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="301"/>
-      <c r="H4" s="302" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="303"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -17765,11 +17903,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="305"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="295"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19253,11 +19391,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="331">
+      <c r="M40" s="332">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="315">
+      <c r="N40" s="305">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -19283,8 +19421,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="314"/>
-      <c r="N41" s="316"/>
+      <c r="M41" s="304"/>
+      <c r="N41" s="306"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19499,29 +19637,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="317" t="s">
+      <c r="H53" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="318"/>
+      <c r="I53" s="308"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="319">
+      <c r="K53" s="309">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="320"/>
-      <c r="M53" s="321">
+      <c r="L53" s="310"/>
+      <c r="M53" s="311">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="322"/>
+      <c r="N53" s="312"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="323" t="s">
+      <c r="D54" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="323"/>
+      <c r="E54" s="313"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -19532,22 +19670,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="324" t="s">
+      <c r="D55" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="324"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="325" t="s">
+      <c r="I55" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="326"/>
-      <c r="K55" s="327">
+      <c r="J55" s="316"/>
+      <c r="K55" s="317">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="328"/>
+      <c r="L55" s="318"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19578,11 +19716,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="329">
+      <c r="K57" s="319">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="330"/>
+      <c r="L57" s="320"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19599,22 +19737,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="306" t="s">
+      <c r="D59" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="307"/>
+      <c r="E59" s="297"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="308" t="s">
+      <c r="I59" s="298" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="309"/>
-      <c r="K59" s="310">
+      <c r="J59" s="299"/>
+      <c r="K59" s="300">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="310"/>
+      <c r="L59" s="300"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -19758,6 +19896,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19767,18 +19917,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21083,23 +21221,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="293"/>
-      <c r="C1" s="295" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="323" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="294"/>
+      <c r="B2" s="322"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21109,21 +21247,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="298"/>
+      <c r="B3" s="325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="326"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="299" t="s">
+      <c r="H3" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="299"/>
+      <c r="I3" s="327"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="304" t="s">
+      <c r="R3" s="294" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21138,14 +21276,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="301"/>
-      <c r="H4" s="302" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="303"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21155,11 +21293,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="305"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="295"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -22657,11 +22795,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="313">
+      <c r="M40" s="303">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="315">
+      <c r="N40" s="305">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -22687,8 +22825,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="314"/>
-      <c r="N41" s="316"/>
+      <c r="M41" s="304"/>
+      <c r="N41" s="306"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -22831,29 +22969,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="317" t="s">
+      <c r="H49" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="318"/>
+      <c r="I49" s="308"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="319">
+      <c r="K49" s="309">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="320"/>
-      <c r="M49" s="321">
+      <c r="L49" s="310"/>
+      <c r="M49" s="311">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="322"/>
+      <c r="N49" s="312"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="323" t="s">
+      <c r="D50" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="323"/>
+      <c r="E50" s="313"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -22864,22 +23002,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="324" t="s">
+      <c r="D51" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="324"/>
+      <c r="E51" s="314"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="325" t="s">
+      <c r="I51" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="326"/>
-      <c r="K51" s="327">
+      <c r="J51" s="316"/>
+      <c r="K51" s="317">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="328"/>
+      <c r="L51" s="318"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -22910,11 +23048,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="329">
+      <c r="K53" s="319">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="330"/>
+      <c r="L53" s="320"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -22931,22 +23069,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="306" t="s">
+      <c r="D55" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="307"/>
+      <c r="E55" s="297"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="308" t="s">
+      <c r="I55" s="298" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="309"/>
-      <c r="K55" s="310">
+      <c r="J55" s="299"/>
+      <c r="K55" s="300">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="310"/>
+      <c r="L55" s="300"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -23093,18 +23231,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23114,6 +23240,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24588,23 +24726,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="293"/>
-      <c r="C1" s="295" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="323" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="294"/>
+      <c r="B2" s="322"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24614,21 +24752,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="298"/>
+      <c r="B3" s="325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="326"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="299" t="s">
+      <c r="H3" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="299"/>
+      <c r="I3" s="327"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="304" t="s">
+      <c r="R3" s="294" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24643,14 +24781,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="301"/>
-      <c r="H4" s="302" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="303"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -24660,11 +24798,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="305"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="295"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -26308,11 +26446,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="313">
+      <c r="M40" s="303">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="315">
+      <c r="N40" s="305">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -26344,8 +26482,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="314"/>
-      <c r="N41" s="316"/>
+      <c r="M41" s="304"/>
+      <c r="N41" s="306"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -26580,29 +26718,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="317" t="s">
+      <c r="H53" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="318"/>
+      <c r="I53" s="308"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="319">
+      <c r="K53" s="309">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="320"/>
-      <c r="M53" s="321">
+      <c r="L53" s="310"/>
+      <c r="M53" s="311">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="322"/>
+      <c r="N53" s="312"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="323" t="s">
+      <c r="D54" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="323"/>
+      <c r="E54" s="313"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -26613,22 +26751,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="324" t="s">
+      <c r="D55" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="324"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="325" t="s">
+      <c r="I55" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="326"/>
-      <c r="K55" s="327">
+      <c r="J55" s="316"/>
+      <c r="K55" s="317">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="328"/>
+      <c r="L55" s="318"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -26659,11 +26797,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="329">
+      <c r="K57" s="319">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="330"/>
+      <c r="L57" s="320"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -26680,22 +26818,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="306" t="s">
+      <c r="D59" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="307"/>
+      <c r="E59" s="297"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="308" t="s">
+      <c r="I59" s="298" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="309"/>
-      <c r="K59" s="310">
+      <c r="J59" s="299"/>
+      <c r="K59" s="300">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="310"/>
+      <c r="L59" s="300"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -26842,18 +26980,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26863,6 +26989,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28366,23 +28504,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="293"/>
-      <c r="C1" s="295" t="s">
+      <c r="B1" s="321"/>
+      <c r="C1" s="323" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="296"/>
-      <c r="G1" s="296"/>
-      <c r="H1" s="296"/>
-      <c r="I1" s="296"/>
-      <c r="J1" s="296"/>
-      <c r="K1" s="296"/>
-      <c r="L1" s="296"/>
-      <c r="M1" s="296"/>
+      <c r="D1" s="324"/>
+      <c r="E1" s="324"/>
+      <c r="F1" s="324"/>
+      <c r="G1" s="324"/>
+      <c r="H1" s="324"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="324"/>
+      <c r="K1" s="324"/>
+      <c r="L1" s="324"/>
+      <c r="M1" s="324"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="294"/>
+      <c r="B2" s="322"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28392,21 +28530,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="297" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="298"/>
+      <c r="B3" s="325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="326"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="299" t="s">
+      <c r="H3" s="327" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="299"/>
+      <c r="I3" s="327"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="304" t="s">
+      <c r="R3" s="294" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28421,14 +28559,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="300" t="s">
+      <c r="E4" s="328" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="301"/>
-      <c r="H4" s="302" t="s">
+      <c r="F4" s="329"/>
+      <c r="H4" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="303"/>
+      <c r="I4" s="331"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -28438,11 +28576,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="311" t="s">
+      <c r="P4" s="301" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="312"/>
-      <c r="R4" s="305"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="295"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -30006,11 +30144,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="313">
+      <c r="M40" s="303">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="315">
+      <c r="N40" s="305">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -30036,8 +30174,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="314"/>
-      <c r="N41" s="316"/>
+      <c r="M41" s="304"/>
+      <c r="N41" s="306"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -30252,29 +30390,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="317" t="s">
+      <c r="H53" s="307" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="318"/>
+      <c r="I53" s="308"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="319">
+      <c r="K53" s="309">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="320"/>
-      <c r="M53" s="321">
+      <c r="L53" s="310"/>
+      <c r="M53" s="311">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="322"/>
+      <c r="N53" s="312"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="323" t="s">
+      <c r="D54" s="313" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="323"/>
+      <c r="E54" s="313"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -30285,22 +30423,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="324" t="s">
+      <c r="D55" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="324"/>
+      <c r="E55" s="314"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="325" t="s">
+      <c r="I55" s="315" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="326"/>
-      <c r="K55" s="327">
+      <c r="J55" s="316"/>
+      <c r="K55" s="317">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="328"/>
+      <c r="L55" s="318"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -30331,11 +30469,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="329">
+      <c r="K57" s="319">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="330"/>
+      <c r="L57" s="320"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -30352,22 +30490,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="306" t="s">
+      <c r="D59" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="307"/>
+      <c r="E59" s="297"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="308" t="s">
+      <c r="I59" s="298" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="309"/>
-      <c r="K59" s="310">
+      <c r="J59" s="299"/>
+      <c r="K59" s="300">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="310"/>
+      <c r="L59" s="300"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -30514,6 +30652,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30523,18 +30673,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="386">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1612,6 +1612,9 @@
   </si>
   <si>
     <t>SALMON</t>
+  </si>
+  <si>
+    <t>Nomina # 29</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -2914,12 +2917,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="333">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3456,6 +3474,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3537,42 +3588,12 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6874,23 +6895,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="294"/>
+      <c r="C1" s="296" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="295"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6900,21 +6921,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="299"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="300"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6929,14 +6950,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="302"/>
+      <c r="H4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="304"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6946,11 +6967,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -8451,11 +8472,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="303">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -8481,8 +8502,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8697,29 +8718,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="312"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8730,22 +8751,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8776,11 +8797,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8797,22 +8818,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="309" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="300"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -8956,12 +8977,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -8977,6 +8992,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10429,23 +10450,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="294"/>
+      <c r="C1" s="296" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="295"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10455,21 +10476,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="299"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="300"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10484,14 +10505,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="302"/>
+      <c r="H4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="304"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10501,11 +10522,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12082,11 +12103,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="303">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12118,8 +12139,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12365,29 +12386,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="312"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -12398,22 +12419,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-2747780.48</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>375154.74000000011</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12444,11 +12465,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12465,22 +12486,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="309" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>225215.93000000011</v>
       </c>
-      <c r="L59" s="300"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12627,6 +12648,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12636,18 +12669,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14017,8 +14038,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14037,27 +14058,27 @@
     <col min="14" max="14" width="16.140625" style="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" customWidth="1"/>
     <col min="17" max="17" width="18.140625" style="244" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="294"/>
+      <c r="C1" s="296" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="295"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14067,21 +14088,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="299"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="300"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14096,14 +14117,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="302"/>
+      <c r="H4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="304"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14113,11 +14134,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -14249,7 +14270,7 @@
         <v>55285</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" ref="Q7:Q40" si="1">P7-F7</f>
+        <f t="shared" ref="Q7:R40" si="1">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="9"/>
@@ -14583,36 +14604,44 @@
         <v>44756</v>
       </c>
       <c r="C15" s="26">
-        <v>0</v>
-      </c>
-      <c r="D15" s="51"/>
+        <v>14035</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>49</v>
+      </c>
       <c r="E15" s="28">
         <v>44756</v>
       </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="29">
+        <v>83567</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="30">
         <v>44756</v>
       </c>
-      <c r="I15" s="31"/>
+      <c r="I15" s="31">
+        <v>94</v>
+      </c>
       <c r="J15" s="38"/>
       <c r="K15" s="45"/>
       <c r="L15" s="40"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <f>20000+51838</f>
+        <v>71838</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="P15" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87567</v>
       </c>
       <c r="Q15" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="293">
+        <v>4000</v>
+      </c>
     </row>
     <row r="16" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
@@ -14626,31 +14655,35 @@
       <c r="E16" s="28">
         <v>44757</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="29">
+        <v>108259</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="30">
         <v>44757</v>
       </c>
-      <c r="I16" s="31"/>
+      <c r="I16" s="31">
+        <v>86</v>
+      </c>
       <c r="J16" s="38"/>
       <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <f>55000+56821</f>
+        <v>111821</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P16" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>111987</v>
       </c>
       <c r="Q16" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="R16" s="293">
+        <v>3728</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -14659,30 +14692,43 @@
         <v>44758</v>
       </c>
       <c r="C17" s="26">
-        <v>0</v>
-      </c>
-      <c r="D17" s="41"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="41" t="s">
+        <v>34</v>
+      </c>
       <c r="E17" s="28">
         <v>44758</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="29">
+        <v>103870</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="30">
         <v>44758</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="48"/>
+      <c r="I17" s="31">
+        <v>130</v>
+      </c>
+      <c r="J17" s="38">
+        <v>44758</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>385</v>
+      </c>
+      <c r="L17" s="48">
+        <v>9500</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <f>40000+48423</f>
+        <v>88423</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>5812</v>
       </c>
       <c r="P17" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>103870</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="1"/>
@@ -15466,21 +15512,25 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="303">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
-        <v>653251</v>
-      </c>
-      <c r="N40" s="305">
+        <v>925333</v>
+      </c>
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
-        <v>18174</v>
-      </c>
-      <c r="P40" s="34">
+        <v>25666</v>
+      </c>
+      <c r="P40" s="333">
         <f>SUM(P5:P39)</f>
-        <v>723354</v>
-      </c>
-      <c r="Q40" s="13">
-        <f t="shared" si="1"/>
-        <v>723354</v>
+        <v>1026778</v>
+      </c>
+      <c r="Q40" s="334">
+        <f>SUM(Q5:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="335">
+        <f>SUM(R5:R39)</f>
+        <v>46221</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -15496,8 +15546,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -15670,7 +15720,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>40587</v>
+        <v>54627</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -15678,7 +15728,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>684861</v>
+        <v>980557</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -15686,7 +15736,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>629</v>
+        <v>939</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -15694,7 +15744,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>10713</v>
+        <v>20213</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -15712,32 +15762,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="320">
         <f>I51+L51</f>
-        <v>11342</v>
-      </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+        <v>21152</v>
+      </c>
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
-        <v>671425</v>
-      </c>
-      <c r="N53" s="312"/>
+        <v>950999</v>
+      </c>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>632932</v>
+        <v>904778</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -15745,22 +15795,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
-        <v>632932</v>
-      </c>
-      <c r="L55" s="318"/>
+        <v>904778</v>
+      </c>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -15784,18 +15834,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>632932</v>
+        <v>904778</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -15810,22 +15860,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="309" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
-        <v>400766.08999999997</v>
-      </c>
-      <c r="L59" s="300"/>
+        <v>672612.09</v>
+      </c>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -15969,6 +16019,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -15978,18 +16040,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.32" right="0.26" top="0.37" bottom="0.37" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17831,23 +17881,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="294"/>
+      <c r="C1" s="296" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="295"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17857,21 +17907,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="299"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="300"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17886,14 +17936,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="302"/>
+      <c r="H4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="304"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -17903,11 +17953,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19395,7 +19445,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -19421,8 +19471,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19637,29 +19687,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="312"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -19670,22 +19720,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19716,11 +19766,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19737,22 +19787,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="309" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="300"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -19896,18 +19946,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -19917,6 +19955,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21221,23 +21271,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="294"/>
+      <c r="C1" s="296" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="295"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21247,21 +21297,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="299"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="300"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21276,14 +21326,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="302"/>
+      <c r="H4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="304"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21293,11 +21343,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -22795,11 +22845,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="303">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -22825,8 +22875,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -22969,29 +23019,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="307" t="s">
+      <c r="H49" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="308"/>
+      <c r="I49" s="319"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="309">
+      <c r="K49" s="320">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="310"/>
-      <c r="M49" s="311">
+      <c r="L49" s="321"/>
+      <c r="M49" s="322">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="312"/>
+      <c r="N49" s="323"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="313" t="s">
+      <c r="D50" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="313"/>
+      <c r="E50" s="324"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -23002,22 +23052,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="314" t="s">
+      <c r="D51" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="314"/>
+      <c r="E51" s="325"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="315" t="s">
+      <c r="I51" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="316"/>
-      <c r="K51" s="317">
+      <c r="J51" s="327"/>
+      <c r="K51" s="328">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="318"/>
+      <c r="L51" s="329"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -23048,11 +23098,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="319">
+      <c r="K53" s="330">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="320"/>
+      <c r="L53" s="331"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -23069,22 +23119,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="296" t="s">
+      <c r="D55" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="297"/>
+      <c r="E55" s="308"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="298" t="s">
+      <c r="I55" s="309" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="299"/>
-      <c r="K55" s="300">
+      <c r="J55" s="310"/>
+      <c r="K55" s="311">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="300"/>
+      <c r="L55" s="311"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -23231,6 +23281,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23240,18 +23302,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24726,23 +24776,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="294"/>
+      <c r="C1" s="296" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="295"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24752,21 +24802,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="299"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="300"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24781,14 +24831,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="302"/>
+      <c r="H4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="304"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -24798,11 +24848,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -26446,11 +26496,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="303">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -26482,8 +26532,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -26718,29 +26768,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="312"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -26751,22 +26801,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -26797,11 +26847,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -26818,22 +26868,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="309" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="300"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -26980,6 +27030,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -26989,18 +27051,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28504,23 +28554,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="321"/>
-      <c r="C1" s="323" t="s">
+      <c r="B1" s="294"/>
+      <c r="C1" s="296" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="324"/>
-      <c r="E1" s="324"/>
-      <c r="F1" s="324"/>
-      <c r="G1" s="324"/>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="324"/>
-      <c r="K1" s="324"/>
-      <c r="L1" s="324"/>
-      <c r="M1" s="324"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="322"/>
+      <c r="B2" s="295"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28530,21 +28580,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="325" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="326"/>
+      <c r="B3" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="299"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="327" t="s">
+      <c r="H3" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="327"/>
+      <c r="I3" s="300"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="294" t="s">
+      <c r="R3" s="305" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28559,14 +28609,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="328" t="s">
+      <c r="E4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="329"/>
-      <c r="H4" s="330" t="s">
+      <c r="F4" s="302"/>
+      <c r="H4" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="331"/>
+      <c r="I4" s="304"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -28576,11 +28626,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="312" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="302"/>
-      <c r="R4" s="295"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="306"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -30144,11 +30194,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="303">
+      <c r="M40" s="314">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="305">
+      <c r="N40" s="316">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -30174,8 +30224,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="304"/>
-      <c r="N41" s="306"/>
+      <c r="M41" s="315"/>
+      <c r="N41" s="317"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -30390,29 +30440,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="307" t="s">
+      <c r="H53" s="318" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="308"/>
+      <c r="I53" s="319"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="309">
+      <c r="K53" s="320">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="310"/>
-      <c r="M53" s="311">
+      <c r="L53" s="321"/>
+      <c r="M53" s="322">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="312"/>
+      <c r="N53" s="323"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="313" t="s">
+      <c r="D54" s="324" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="313"/>
+      <c r="E54" s="324"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -30423,22 +30473,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="314" t="s">
+      <c r="D55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="314"/>
+      <c r="E55" s="325"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="315" t="s">
+      <c r="I55" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="316"/>
-      <c r="K55" s="317">
+      <c r="J55" s="327"/>
+      <c r="K55" s="328">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="318"/>
+      <c r="L55" s="329"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -30469,11 +30519,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="319">
+      <c r="K57" s="330">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="320"/>
+      <c r="L57" s="331"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -30490,22 +30540,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="296" t="s">
+      <c r="D59" s="307" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="297"/>
+      <c r="E59" s="308"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="298" t="s">
+      <c r="I59" s="309" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="299"/>
-      <c r="K59" s="300">
+      <c r="J59" s="310"/>
+      <c r="K59" s="311">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="300"/>
+      <c r="L59" s="311"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -30652,18 +30702,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30673,6 +30711,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="388">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1615,6 +1615,12 @@
   </si>
   <si>
     <t>Nomina # 29</t>
+  </si>
+  <si>
+    <t>arabe</t>
+  </si>
+  <si>
+    <t>Nomina # 30</t>
   </si>
 </sst>
 </file>
@@ -3474,6 +3480,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3591,9 +3600,6 @@
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -6895,23 +6901,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="294"/>
-      <c r="C1" s="296" t="s">
+      <c r="B1" s="297"/>
+      <c r="C1" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="295"/>
+      <c r="B2" s="298"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6921,21 +6927,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="299"/>
+      <c r="B3" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="302"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="303"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="308" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6950,14 +6956,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="302"/>
-      <c r="H4" s="303" t="s">
+      <c r="F4" s="305"/>
+      <c r="H4" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="304"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6967,11 +6973,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="315" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -8472,11 +8478,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="317">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="319">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -8502,8 +8508,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="318"/>
+      <c r="N41" s="320"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8718,29 +8724,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="322"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="323">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="324"/>
+      <c r="M53" s="325">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="326"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="327"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8751,22 +8757,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="328" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="328"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="330"/>
+      <c r="K55" s="331">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="332"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8797,11 +8803,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="333">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="334"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8818,22 +8824,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="311"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="312" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="313"/>
+      <c r="K59" s="314">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="314"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -10450,23 +10456,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="294"/>
-      <c r="C1" s="296" t="s">
+      <c r="B1" s="297"/>
+      <c r="C1" s="299" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="295"/>
+      <c r="B2" s="298"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10476,21 +10482,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="299"/>
+      <c r="B3" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="302"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="303"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="308" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10505,14 +10511,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="302"/>
-      <c r="H4" s="303" t="s">
+      <c r="F4" s="305"/>
+      <c r="H4" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="304"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10522,11 +10528,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="315" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12103,11 +12109,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="317">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="319">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12139,8 +12145,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="318"/>
+      <c r="N41" s="320"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12386,29 +12392,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="322"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="323">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="324"/>
+      <c r="M53" s="325">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="326"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="327"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -12419,22 +12425,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="328" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="328"/>
       <c r="F55" s="115">
         <v>-2747780.48</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="330"/>
+      <c r="K55" s="331">
         <f>F57+F58+F59</f>
         <v>375154.74000000011</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="332"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12465,11 +12471,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="333">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="334"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12486,22 +12492,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="311"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="312" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="313"/>
+      <c r="K59" s="314">
         <f>K55+K57</f>
         <v>225215.93000000011</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="314"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -14038,8 +14044,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14062,23 +14068,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="294"/>
-      <c r="C1" s="296" t="s">
+      <c r="B1" s="297"/>
+      <c r="C1" s="299" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="295"/>
+      <c r="B2" s="298"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14088,21 +14094,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="299"/>
+      <c r="B3" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="302"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="303"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="308" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14117,14 +14123,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="302"/>
-      <c r="H4" s="303" t="s">
+      <c r="F4" s="305"/>
+      <c r="H4" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="304"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14134,11 +14140,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="315" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -14270,7 +14276,7 @@
         <v>55285</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" ref="Q7:R40" si="1">P7-F7</f>
+        <f t="shared" ref="Q7:Q39" si="1">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="9"/>
@@ -14748,24 +14754,29 @@
       <c r="E18" s="28">
         <v>44759</v>
       </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="29">
+        <v>174202</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="30">
         <v>44759</v>
       </c>
-      <c r="I18" s="31"/>
+      <c r="I18" s="31">
+        <v>56</v>
+      </c>
       <c r="J18" s="38"/>
       <c r="K18" s="53"/>
       <c r="L18" s="40"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <f>80000+75000+16489</f>
+        <v>171489</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>2657</v>
       </c>
       <c r="P18" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>174202</v>
       </c>
       <c r="Q18" s="13">
         <f t="shared" si="1"/>
@@ -14779,31 +14790,38 @@
         <v>44760</v>
       </c>
       <c r="C19" s="26">
-        <v>0</v>
-      </c>
-      <c r="D19" s="36"/>
+        <v>2220</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="E19" s="28">
         <v>44760</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="29">
+        <v>76929</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="30">
         <v>44760</v>
       </c>
-      <c r="I19" s="31"/>
+      <c r="I19" s="31">
+        <v>76</v>
+      </c>
       <c r="J19" s="38"/>
       <c r="K19" s="54"/>
       <c r="L19" s="55"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <f>10000+59233</f>
+        <v>69233</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>5400</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>76929</v>
       </c>
       <c r="Q19" s="13">
         <f t="shared" si="1"/>
@@ -14817,30 +14835,37 @@
         <v>44761</v>
       </c>
       <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="36"/>
+        <v>2800</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>312</v>
+      </c>
       <c r="E20" s="28">
         <v>44761</v>
       </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="29">
+        <v>80274</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="30">
         <v>44761</v>
       </c>
-      <c r="I20" s="31"/>
+      <c r="I20" s="31">
+        <v>15</v>
+      </c>
       <c r="J20" s="38"/>
       <c r="K20" s="56"/>
       <c r="L20" s="48"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <f>52240+20000</f>
+        <v>72240</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>5219</v>
       </c>
       <c r="P20" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80274</v>
       </c>
       <c r="Q20" s="13">
         <f t="shared" si="1"/>
@@ -14860,24 +14885,29 @@
       <c r="E21" s="28">
         <v>44762</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="29">
+        <v>69450</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="30">
         <v>44762</v>
       </c>
-      <c r="I21" s="31"/>
+      <c r="I21" s="31">
+        <v>85</v>
+      </c>
       <c r="J21" s="38"/>
       <c r="K21" s="57"/>
       <c r="L21" s="48"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <f>52210+15000</f>
+        <v>67210</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>2155</v>
       </c>
       <c r="P21" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69450</v>
       </c>
       <c r="Q21" s="13">
         <f t="shared" si="1"/>
@@ -14891,30 +14921,37 @@
         <v>44763</v>
       </c>
       <c r="C22" s="26">
-        <v>0</v>
-      </c>
-      <c r="D22" s="36"/>
+        <v>26231</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="E22" s="28">
         <v>44763</v>
       </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="29">
+        <v>96352</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="30">
         <v>44763</v>
       </c>
-      <c r="I22" s="31"/>
+      <c r="I22" s="31">
+        <v>71</v>
+      </c>
       <c r="J22" s="38"/>
       <c r="K22" s="45"/>
       <c r="L22" s="58"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <f>43277+25000</f>
+        <v>68277</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>1773</v>
       </c>
       <c r="P22" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96352</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="1"/>
@@ -14934,24 +14971,29 @@
       <c r="E23" s="28">
         <v>44764</v>
       </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="29">
+        <v>116734</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="30">
         <v>44764</v>
       </c>
-      <c r="I23" s="31"/>
+      <c r="I23" s="31">
+        <v>148</v>
+      </c>
       <c r="J23" s="59"/>
       <c r="K23" s="60"/>
       <c r="L23" s="48"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <f>45000+50000+20886</f>
+        <v>115886</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="P23" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>116734</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="1"/>
@@ -14965,30 +15007,43 @@
         <v>44765</v>
       </c>
       <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="41"/>
+        <v>19</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>386</v>
+      </c>
       <c r="E24" s="28">
         <v>44765</v>
       </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="29">
+        <v>119975</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="30">
         <v>44765</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="63"/>
+      <c r="I24" s="31">
+        <v>95</v>
+      </c>
+      <c r="J24" s="181">
+        <v>44765</v>
+      </c>
+      <c r="K24" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="L24" s="63">
+        <v>9500</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <f>14453+50000+40000</f>
+        <v>104453</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>5908</v>
       </c>
       <c r="P24" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>119975</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="1"/>
@@ -15008,27 +15063,32 @@
       <c r="E25" s="28">
         <v>44766</v>
       </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="29">
+        <v>133851</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="30">
         <v>44766</v>
       </c>
-      <c r="I25" s="31"/>
+      <c r="I25" s="31">
+        <v>40</v>
+      </c>
       <c r="J25" s="64"/>
       <c r="K25" s="290"/>
       <c r="L25" s="66"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <f>100000+33570</f>
+        <v>133570</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s">
         <v>8</v>
       </c>
       <c r="P25" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>133851</v>
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="1"/>
@@ -15512,23 +15572,23 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="317">
         <f>SUM(M5:M39)</f>
-        <v>925333</v>
-      </c>
-      <c r="N40" s="316">
+        <v>1727691</v>
+      </c>
+      <c r="N40" s="319">
         <f>SUM(N5:N39)</f>
-        <v>25666</v>
-      </c>
-      <c r="P40" s="333">
+        <v>49719</v>
+      </c>
+      <c r="P40" s="294">
         <f>SUM(P5:P39)</f>
-        <v>1026778</v>
-      </c>
-      <c r="Q40" s="334">
+        <v>1894545</v>
+      </c>
+      <c r="Q40" s="295">
         <f>SUM(Q5:Q39)</f>
         <v>0</v>
       </c>
-      <c r="R40" s="335">
+      <c r="R40" s="296">
         <f>SUM(R5:R39)</f>
         <v>46221</v>
       </c>
@@ -15546,8 +15606,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="318"/>
+      <c r="N41" s="320"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -15720,7 +15780,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>54627</v>
+        <v>85897</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -15728,7 +15788,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>980557</v>
+        <v>1848324</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -15736,7 +15796,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>939</v>
+        <v>1525</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -15744,7 +15804,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>20213</v>
+        <v>29713</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -15762,32 +15822,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="322"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="323">
         <f>I51+L51</f>
-        <v>21152</v>
-      </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+        <v>31238</v>
+      </c>
+      <c r="L53" s="324"/>
+      <c r="M53" s="325">
         <f>N40+M40</f>
-        <v>950999</v>
-      </c>
-      <c r="N53" s="323"/>
+        <v>1777410</v>
+      </c>
+      <c r="N53" s="326"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="327"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>904778</v>
+        <v>1731189</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -15795,22 +15855,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="328" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="328"/>
       <c r="F55" s="115">
         <v>0</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="330"/>
+      <c r="K55" s="331">
         <f>F57+F58+F59</f>
-        <v>904778</v>
-      </c>
-      <c r="L55" s="329"/>
+        <v>1731189</v>
+      </c>
+      <c r="L55" s="332"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -15834,18 +15894,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>904778</v>
+        <v>1731189</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="333">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="334"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -15860,22 +15920,22 @@
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C59" s="133"/>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="311"/>
       <c r="F59" s="134">
         <v>0</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="312" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="313"/>
+      <c r="K59" s="314">
         <f>K55+K57</f>
-        <v>672612.09</v>
-      </c>
-      <c r="L59" s="311"/>
+        <v>1499023.09</v>
+      </c>
+      <c r="L59" s="314"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -17881,23 +17941,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="294"/>
-      <c r="C1" s="296" t="s">
+      <c r="B1" s="297"/>
+      <c r="C1" s="299" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="295"/>
+      <c r="B2" s="298"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17907,21 +17967,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="299"/>
+      <c r="B3" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="302"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="303"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="308" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17936,14 +17996,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="302"/>
-      <c r="H4" s="303" t="s">
+      <c r="F4" s="305"/>
+      <c r="H4" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="304"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -17953,11 +18013,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="315" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19441,11 +19501,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="332">
+      <c r="M40" s="335">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="319">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -19471,8 +19531,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="318"/>
+      <c r="N41" s="320"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19687,29 +19747,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="322"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="323">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="324"/>
+      <c r="M53" s="325">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="326"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="327"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -19720,22 +19780,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="328" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="328"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="330"/>
+      <c r="K55" s="331">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="332"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19766,11 +19826,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="333">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="334"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19787,22 +19847,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="311"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="312" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="313"/>
+      <c r="K59" s="314">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="314"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -21271,23 +21331,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="294"/>
-      <c r="C1" s="296" t="s">
+      <c r="B1" s="297"/>
+      <c r="C1" s="299" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="295"/>
+      <c r="B2" s="298"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21297,21 +21357,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="299"/>
+      <c r="B3" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="302"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="303"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="308" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21326,14 +21386,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="302"/>
-      <c r="H4" s="303" t="s">
+      <c r="F4" s="305"/>
+      <c r="H4" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="304"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21343,11 +21403,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="315" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -22845,11 +22905,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="317">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="319">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -22875,8 +22935,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="318"/>
+      <c r="N41" s="320"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -23019,29 +23079,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="318" t="s">
+      <c r="H49" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="319"/>
+      <c r="I49" s="322"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="320">
+      <c r="K49" s="323">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="321"/>
-      <c r="M49" s="322">
+      <c r="L49" s="324"/>
+      <c r="M49" s="325">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="323"/>
+      <c r="N49" s="326"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="324" t="s">
+      <c r="D50" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="324"/>
+      <c r="E50" s="327"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -23052,22 +23112,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="325" t="s">
+      <c r="D51" s="328" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="325"/>
+      <c r="E51" s="328"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="326" t="s">
+      <c r="I51" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="327"/>
-      <c r="K51" s="328">
+      <c r="J51" s="330"/>
+      <c r="K51" s="331">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="329"/>
+      <c r="L51" s="332"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -23098,11 +23158,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="330">
+      <c r="K53" s="333">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="331"/>
+      <c r="L53" s="334"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -23119,22 +23179,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="307" t="s">
+      <c r="D55" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="308"/>
+      <c r="E55" s="311"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="309" t="s">
+      <c r="I55" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="310"/>
-      <c r="K55" s="311">
+      <c r="J55" s="313"/>
+      <c r="K55" s="314">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="311"/>
+      <c r="L55" s="314"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -24776,23 +24836,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="294"/>
-      <c r="C1" s="296" t="s">
+      <c r="B1" s="297"/>
+      <c r="C1" s="299" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="295"/>
+      <c r="B2" s="298"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24802,21 +24862,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="299"/>
+      <c r="B3" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="302"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="303"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="308" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24831,14 +24891,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="302"/>
-      <c r="H4" s="303" t="s">
+      <c r="F4" s="305"/>
+      <c r="H4" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="304"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -24848,11 +24908,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="315" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -26496,11 +26556,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="314">
+      <c r="M40" s="317">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="319">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -26532,8 +26592,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="318"/>
+      <c r="N41" s="320"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -26768,29 +26828,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="322"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="323">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="324"/>
+      <c r="M53" s="325">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="326"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="327"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -26801,22 +26861,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="328" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="328"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="330"/>
+      <c r="K55" s="331">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="332"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -26847,11 +26907,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="333">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="334"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -26868,22 +26928,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="311"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="312" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="313"/>
+      <c r="K59" s="314">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="314"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -28554,23 +28614,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="294"/>
-      <c r="C1" s="296" t="s">
+      <c r="B1" s="297"/>
+      <c r="C1" s="299" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="297"/>
-      <c r="E1" s="297"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="297"/>
-      <c r="M1" s="297"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="295"/>
+      <c r="B2" s="298"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28580,21 +28640,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="299"/>
+      <c r="B3" s="301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="302"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="300"/>
+      <c r="I3" s="303"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="305" t="s">
+      <c r="R3" s="308" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28609,14 +28669,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="302"/>
-      <c r="H4" s="303" t="s">
+      <c r="F4" s="305"/>
+      <c r="H4" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="304"/>
+      <c r="I4" s="307"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -28626,11 +28686,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="315" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="306"/>
+      <c r="Q4" s="316"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -30194,11 +30254,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="314">
+      <c r="M40" s="317">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="316">
+      <c r="N40" s="319">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -30224,8 +30284,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="315"/>
-      <c r="N41" s="317"/>
+      <c r="M41" s="318"/>
+      <c r="N41" s="320"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -30440,29 +30500,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="318" t="s">
+      <c r="H53" s="321" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="319"/>
+      <c r="I53" s="322"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="320">
+      <c r="K53" s="323">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="321"/>
-      <c r="M53" s="322">
+      <c r="L53" s="324"/>
+      <c r="M53" s="325">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="323"/>
+      <c r="N53" s="326"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="324" t="s">
+      <c r="D54" s="327" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="324"/>
+      <c r="E54" s="327"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -30473,22 +30533,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="325" t="s">
+      <c r="D55" s="328" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="325"/>
+      <c r="E55" s="328"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="326" t="s">
+      <c r="I55" s="329" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="327"/>
-      <c r="K55" s="328">
+      <c r="J55" s="330"/>
+      <c r="K55" s="331">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="329"/>
+      <c r="L55" s="332"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -30519,11 +30579,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="330">
+      <c r="K57" s="333">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="331"/>
+      <c r="L57" s="334"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -30540,22 +30600,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="307" t="s">
+      <c r="D59" s="310" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="308"/>
+      <c r="E59" s="311"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="309" t="s">
+      <c r="I59" s="312" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="310"/>
-      <c r="K59" s="311">
+      <c r="J59" s="313"/>
+      <c r="K59" s="314">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="311"/>
+      <c r="L59" s="314"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="11" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="    J U N I O     2 0 2 2      " sheetId="11" r:id="rId11"/>
     <sheet name=" REMISIONES   JUNIO   2022   " sheetId="12" r:id="rId12"/>
     <sheet name="    J U L I O     2 0 2 2     " sheetId="13" r:id="rId13"/>
-    <sheet name="Hoja1" sheetId="14" r:id="rId14"/>
+    <sheet name="  REMISIONES   JULIO  2022    " sheetId="14" r:id="rId14"/>
     <sheet name="Hoja3" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="421">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -1622,6 +1622,105 @@
   <si>
     <t>Nomina # 30</t>
   </si>
+  <si>
+    <t>Longaniza</t>
+  </si>
+  <si>
+    <t>Nomina # 31</t>
+  </si>
+  <si>
+    <t>02901 D</t>
+  </si>
+  <si>
+    <t>02902 D</t>
+  </si>
+  <si>
+    <t>03073 D</t>
+  </si>
+  <si>
+    <t>03205 D</t>
+  </si>
+  <si>
+    <t>03293 D</t>
+  </si>
+  <si>
+    <t>03316 D</t>
+  </si>
+  <si>
+    <t>03364D</t>
+  </si>
+  <si>
+    <t>03460 D</t>
+  </si>
+  <si>
+    <t>03596 D</t>
+  </si>
+  <si>
+    <t>03727 D</t>
+  </si>
+  <si>
+    <t>03818 D</t>
+  </si>
+  <si>
+    <t>03947 D</t>
+  </si>
+  <si>
+    <t>04046 D</t>
+  </si>
+  <si>
+    <t>04166 D</t>
+  </si>
+  <si>
+    <t>04278 D</t>
+  </si>
+  <si>
+    <t>04333 D</t>
+  </si>
+  <si>
+    <t>04460 D</t>
+  </si>
+  <si>
+    <t>04549 D</t>
+  </si>
+  <si>
+    <t>04657 D</t>
+  </si>
+  <si>
+    <t>04773 D</t>
+  </si>
+  <si>
+    <t>04891 D</t>
+  </si>
+  <si>
+    <t>04978 D</t>
+  </si>
+  <si>
+    <t>05058 D</t>
+  </si>
+  <si>
+    <t>05313 D</t>
+  </si>
+  <si>
+    <t>05349 D</t>
+  </si>
+  <si>
+    <t>05532 D</t>
+  </si>
+  <si>
+    <t>05535 D</t>
+  </si>
+  <si>
+    <t>05582 D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUZ </t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>comisiones banco</t>
+  </si>
 </sst>
 </file>
 
@@ -1635,7 +1734,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2060,6 +2159,14 @@
       <b/>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2943,7 +3050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="336">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -3480,42 +3587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3597,8 +3671,53 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6901,23 +7020,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="297"/>
-      <c r="C1" s="299" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="326" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="298"/>
+      <c r="B2" s="325"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -6927,21 +7046,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="302"/>
+      <c r="B3" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="329"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="330" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="303"/>
+      <c r="I3" s="330"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="297" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6956,14 +7075,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="H4" s="306" t="s">
+      <c r="F4" s="332"/>
+      <c r="H4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="307"/>
+      <c r="I4" s="334"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -6973,11 +7092,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="315" t="s">
+      <c r="P4" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="309"/>
+      <c r="Q4" s="305"/>
+      <c r="R4" s="298"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -8478,11 +8597,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="317">
+      <c r="M40" s="306">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="319">
+      <c r="N40" s="308">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -8508,8 +8627,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="318"/>
-      <c r="N41" s="320"/>
+      <c r="M41" s="307"/>
+      <c r="N41" s="309"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8724,29 +8843,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="321" t="s">
+      <c r="H53" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="322"/>
+      <c r="I53" s="311"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="323">
+      <c r="K53" s="312">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="324"/>
-      <c r="M53" s="325">
+      <c r="L53" s="313"/>
+      <c r="M53" s="314">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="326"/>
+      <c r="N53" s="315"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="327" t="s">
+      <c r="D54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="327"/>
+      <c r="E54" s="316"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8757,22 +8876,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="328" t="s">
+      <c r="D55" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="328"/>
+      <c r="E55" s="317"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="329" t="s">
+      <c r="I55" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="330"/>
-      <c r="K55" s="331">
+      <c r="J55" s="319"/>
+      <c r="K55" s="320">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="332"/>
+      <c r="L55" s="321"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8803,11 +8922,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="333">
+      <c r="K57" s="322">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="334"/>
+      <c r="L57" s="323"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8824,22 +8943,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="310" t="s">
+      <c r="D59" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="311"/>
+      <c r="E59" s="300"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="312" t="s">
+      <c r="I59" s="301" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="313"/>
-      <c r="K59" s="314">
+      <c r="J59" s="302"/>
+      <c r="K59" s="303">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="314"/>
+      <c r="L59" s="303"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -8983,6 +9102,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -8998,12 +9123,6 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10432,8 +10551,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10456,23 +10575,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="297"/>
-      <c r="C1" s="299" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="326" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="298"/>
+      <c r="B2" s="325"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10482,21 +10601,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="302"/>
+      <c r="B3" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="329"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="330" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="303"/>
+      <c r="I3" s="330"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="297" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10511,14 +10630,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="H4" s="306" t="s">
+      <c r="F4" s="332"/>
+      <c r="H4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="307"/>
+      <c r="I4" s="334"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10528,11 +10647,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="315" t="s">
+      <c r="P4" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="309"/>
+      <c r="Q4" s="305"/>
+      <c r="R4" s="298"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12109,11 +12228,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="317">
+      <c r="M40" s="306">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="319">
+      <c r="N40" s="308">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12145,8 +12264,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="318"/>
-      <c r="N41" s="320"/>
+      <c r="M41" s="307"/>
+      <c r="N41" s="309"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12235,7 +12354,7 @@
       <c r="J45" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="K45" s="76" t="s">
+      <c r="K45" s="336" t="s">
         <v>378</v>
       </c>
       <c r="L45" s="80">
@@ -12392,29 +12511,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="321" t="s">
+      <c r="H53" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="322"/>
+      <c r="I53" s="311"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="323">
+      <c r="K53" s="312">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="324"/>
-      <c r="M53" s="325">
+      <c r="L53" s="313"/>
+      <c r="M53" s="314">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="326"/>
+      <c r="N53" s="315"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="327" t="s">
+      <c r="D54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="327"/>
+      <c r="E54" s="316"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -12425,22 +12544,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="328" t="s">
+      <c r="D55" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="328"/>
+      <c r="E55" s="317"/>
       <c r="F55" s="115">
         <v>-2747780.48</v>
       </c>
-      <c r="I55" s="329" t="s">
+      <c r="I55" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="330"/>
-      <c r="K55" s="331">
+      <c r="J55" s="319"/>
+      <c r="K55" s="320">
         <f>F57+F58+F59</f>
         <v>375154.74000000011</v>
       </c>
-      <c r="L55" s="332"/>
+      <c r="L55" s="321"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12471,11 +12590,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="333">
+      <c r="K57" s="322">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="334"/>
+      <c r="L57" s="323"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12492,22 +12611,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="310" t="s">
+      <c r="D59" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="311"/>
+      <c r="E59" s="300"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="312" t="s">
+      <c r="I59" s="301" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="313"/>
-      <c r="K59" s="314">
+      <c r="J59" s="302"/>
+      <c r="K59" s="303">
         <f>K55+K57</f>
         <v>225215.93000000011</v>
       </c>
-      <c r="L59" s="314"/>
+      <c r="L59" s="303"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12654,18 +12773,6 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12675,6 +12782,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12691,7 +12810,7 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="B37" sqref="B36:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14044,8 +14163,8 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14068,23 +14187,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="297"/>
-      <c r="C1" s="299" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="326" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="298"/>
+      <c r="B2" s="325"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14094,21 +14213,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="302"/>
+      <c r="B3" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="329"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="330" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="303"/>
+      <c r="I3" s="330"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="297" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14123,14 +14242,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="H4" s="306" t="s">
+      <c r="F4" s="332"/>
+      <c r="H4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="307"/>
+      <c r="I4" s="334"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14140,11 +14259,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="315" t="s">
+      <c r="P4" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="309"/>
+      <c r="Q4" s="305"/>
+      <c r="R4" s="298"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -14228,7 +14347,7 @@
       </c>
       <c r="O6" s="2"/>
       <c r="P6" s="34">
-        <f t="shared" ref="P6:P39" si="0">N6+M6+L6+I6+C6</f>
+        <f t="shared" ref="P6:P40" si="0">N6+M6+L6+I6+C6</f>
         <v>74847</v>
       </c>
       <c r="Q6" s="13">
@@ -15102,30 +15221,37 @@
         <v>44767</v>
       </c>
       <c r="C26" s="26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="36"/>
+        <v>3750</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>388</v>
+      </c>
       <c r="E26" s="28">
         <v>44767</v>
       </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="29">
+        <v>88776</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="30">
         <v>44767</v>
       </c>
-      <c r="I26" s="31"/>
+      <c r="I26" s="31">
+        <v>54</v>
+      </c>
       <c r="J26" s="38"/>
       <c r="K26" s="62"/>
       <c r="L26" s="48"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <f>38428+40000</f>
+        <v>78428</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>6544</v>
       </c>
       <c r="P26" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>88776</v>
       </c>
       <c r="Q26" s="13">
         <f t="shared" si="1"/>
@@ -15145,28 +15271,33 @@
       <c r="E27" s="28">
         <v>44768</v>
       </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="29">
+        <v>99511</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="30">
         <v>44768</v>
       </c>
-      <c r="I27" s="31"/>
+      <c r="I27" s="31">
+        <v>120</v>
+      </c>
       <c r="J27" s="67"/>
       <c r="K27" s="68"/>
       <c r="L27" s="66"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <f>29390+20000+50000</f>
+        <v>99390</v>
       </c>
       <c r="N27" s="33">
         <v>0</v>
       </c>
       <c r="P27" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99510</v>
+      </c>
+      <c r="Q27" s="296">
+        <f t="shared" si="1"/>
+        <v>-1</v>
       </c>
       <c r="R27" s="9"/>
     </row>
@@ -15182,24 +15313,29 @@
       <c r="E28" s="28">
         <v>44769</v>
       </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="29">
+        <v>38709</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="30">
         <v>44769</v>
       </c>
-      <c r="I28" s="31"/>
+      <c r="I28" s="31">
+        <v>244</v>
+      </c>
       <c r="J28" s="69"/>
       <c r="K28" s="70"/>
       <c r="L28" s="66"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>10000+27658</f>
+        <v>37658</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38709</v>
       </c>
       <c r="Q28" s="13">
         <f t="shared" si="1"/>
@@ -15213,30 +15349,37 @@
         <v>44770</v>
       </c>
       <c r="C29" s="26">
-        <v>0</v>
-      </c>
-      <c r="D29" s="71"/>
+        <v>18558</v>
+      </c>
+      <c r="D29" s="71" t="s">
+        <v>49</v>
+      </c>
       <c r="E29" s="28">
         <v>44770</v>
       </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="29">
+        <v>68450</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="30">
         <v>44770</v>
       </c>
-      <c r="I29" s="31"/>
+      <c r="I29" s="31">
+        <v>48</v>
+      </c>
       <c r="J29" s="67"/>
       <c r="K29" s="72"/>
       <c r="L29" s="66"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <f>35756+10000</f>
+        <v>45756</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>4088</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68450</v>
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="1"/>
@@ -15256,24 +15399,29 @@
       <c r="E30" s="28">
         <v>44771</v>
       </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="29">
+        <v>121452</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="30">
         <v>44771</v>
       </c>
-      <c r="I30" s="31"/>
+      <c r="I30" s="31">
+        <v>291</v>
+      </c>
       <c r="J30" s="73"/>
       <c r="K30" s="74"/>
       <c r="L30" s="75"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <f>35000+65000+20961</f>
+        <v>120961</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121452</v>
       </c>
       <c r="Q30" s="13">
         <f t="shared" si="1"/>
@@ -15293,24 +15441,35 @@
       <c r="E31" s="28">
         <v>44772</v>
       </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="29">
+        <v>142552</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="30">
         <v>44772</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="77"/>
+      <c r="I31" s="31">
+        <v>118</v>
+      </c>
+      <c r="J31" s="73">
+        <v>44772</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="L31" s="77">
+        <v>9500</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <f>40000+70000+18287</f>
+        <v>128287</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>4647</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>142552</v>
       </c>
       <c r="Q31" s="13">
         <f t="shared" si="1"/>
@@ -15330,24 +15489,29 @@
       <c r="E32" s="28">
         <v>44773</v>
       </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="29">
+        <v>136330</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="30">
         <v>44773</v>
       </c>
-      <c r="I32" s="31"/>
+      <c r="I32" s="31">
+        <v>95</v>
+      </c>
       <c r="J32" s="73"/>
       <c r="K32" s="74"/>
       <c r="L32" s="75"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <f>90000+35000+9932</f>
+        <v>134932</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>1303</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136330</v>
       </c>
       <c r="Q32" s="13">
         <f t="shared" si="1"/>
@@ -15396,9 +15560,15 @@
       <c r="G34" s="2"/>
       <c r="H34" s="30"/>
       <c r="I34" s="31"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="82"/>
+      <c r="J34" s="73">
+        <v>44760</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" s="82">
+        <v>1392</v>
+      </c>
       <c r="M34" s="32">
         <v>0</v>
       </c>
@@ -15406,7 +15576,6 @@
         <v>0</v>
       </c>
       <c r="P34" s="34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q34" s="13">
@@ -15427,9 +15596,15 @@
       <c r="G35" s="2"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="80"/>
+      <c r="J35" s="73">
+        <v>44771</v>
+      </c>
+      <c r="K35" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="L35" s="80">
+        <v>927.48</v>
+      </c>
       <c r="M35" s="32">
         <v>0</v>
       </c>
@@ -15437,7 +15612,6 @@
         <v>0</v>
       </c>
       <c r="P35" s="34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q35" s="13">
@@ -15446,7 +15620,7 @@
       </c>
       <c r="R35" s="9"/>
     </row>
-    <row r="36" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
@@ -15456,9 +15630,15 @@
       <c r="G36" s="2"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="221"/>
-      <c r="L36" s="80"/>
+      <c r="J36" s="338" t="s">
+        <v>419</v>
+      </c>
+      <c r="K36" s="337" t="s">
+        <v>418</v>
+      </c>
+      <c r="L36" s="80">
+        <v>32491</v>
+      </c>
       <c r="M36" s="32">
         <v>0</v>
       </c>
@@ -15466,7 +15646,6 @@
         <v>0</v>
       </c>
       <c r="P36" s="34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q36" s="13">
@@ -15485,9 +15664,15 @@
       <c r="G37" s="2"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="80"/>
+      <c r="J37" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="K37" s="339" t="s">
+        <v>420</v>
+      </c>
+      <c r="L37" s="80">
+        <v>3131.24</v>
+      </c>
       <c r="M37" s="32">
         <v>0</v>
       </c>
@@ -15495,7 +15680,6 @@
         <v>0</v>
       </c>
       <c r="P37" s="34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q37" s="13">
@@ -15503,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
@@ -15523,7 +15707,6 @@
         <v>0</v>
       </c>
       <c r="P38" s="34">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q38" s="13">
@@ -15572,23 +15755,23 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="317">
+      <c r="M40" s="306">
         <f>SUM(M5:M39)</f>
-        <v>1727691</v>
-      </c>
-      <c r="N40" s="319">
+        <v>2373103</v>
+      </c>
+      <c r="N40" s="308">
         <f>SUM(N5:N39)</f>
-        <v>49719</v>
-      </c>
-      <c r="P40" s="294">
-        <f>SUM(P5:P39)</f>
-        <v>1894545</v>
-      </c>
-      <c r="Q40" s="295">
+        <v>67308</v>
+      </c>
+      <c r="P40" s="34">
+        <f t="shared" si="0"/>
+        <v>2440411</v>
+      </c>
+      <c r="Q40" s="294">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="296">
+        <v>-1</v>
+      </c>
+      <c r="R40" s="295">
         <f>SUM(R5:R39)</f>
         <v>46221</v>
       </c>
@@ -15606,12 +15789,12 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="318"/>
-      <c r="N41" s="320"/>
+      <c r="M41" s="307"/>
+      <c r="N41" s="309"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24"/>
       <c r="B42" s="159"/>
       <c r="C42" s="86"/>
@@ -15629,7 +15812,7 @@
       <c r="P42" s="34"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24"/>
       <c r="B43" s="159"/>
       <c r="C43" s="86"/>
@@ -15647,7 +15830,7 @@
       <c r="P43" s="34"/>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="159"/>
       <c r="C44" s="86"/>
@@ -15665,7 +15848,7 @@
       <c r="P44" s="34"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="24"/>
       <c r="B45" s="159"/>
       <c r="C45" s="86"/>
@@ -15683,7 +15866,7 @@
       <c r="P45" s="34"/>
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="24"/>
       <c r="B46" s="263"/>
       <c r="C46" s="90"/>
@@ -15701,7 +15884,7 @@
       <c r="P46" s="34"/>
       <c r="Q46" s="9"/>
     </row>
-    <row r="47" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="24"/>
       <c r="B47" s="25"/>
       <c r="C47" s="90"/>
@@ -15719,7 +15902,7 @@
       <c r="P47" s="34"/>
       <c r="Q47" s="9"/>
     </row>
-    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="24"/>
       <c r="B48" s="25"/>
       <c r="C48" s="90"/>
@@ -15737,7 +15920,7 @@
       <c r="P48" s="34"/>
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="1:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="24"/>
       <c r="B49" s="25"/>
       <c r="C49" s="90"/>
@@ -15780,7 +15963,7 @@
       </c>
       <c r="C51" s="106">
         <f>SUM(C5:C50)</f>
-        <v>85897</v>
+        <v>108205</v>
       </c>
       <c r="D51" s="107"/>
       <c r="E51" s="108" t="s">
@@ -15788,7 +15971,7 @@
       </c>
       <c r="F51" s="109">
         <f>SUM(F5:F50)</f>
-        <v>1848324</v>
+        <v>2544104</v>
       </c>
       <c r="G51" s="107"/>
       <c r="H51" s="110" t="s">
@@ -15796,7 +15979,7 @@
       </c>
       <c r="I51" s="111">
         <f>SUM(I5:I50)</f>
-        <v>1525</v>
+        <v>2495</v>
       </c>
       <c r="J51" s="112"/>
       <c r="K51" s="113" t="s">
@@ -15804,7 +15987,7 @@
       </c>
       <c r="L51" s="114">
         <f>SUM(L5:L50)</f>
-        <v>29713</v>
+        <v>77154.720000000016</v>
       </c>
       <c r="M51" s="115"/>
       <c r="N51" s="115"/>
@@ -15822,32 +16005,32 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="321" t="s">
+      <c r="H53" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="322"/>
+      <c r="I53" s="311"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="323">
+      <c r="K53" s="312">
         <f>I51+L51</f>
-        <v>31238</v>
-      </c>
-      <c r="L53" s="324"/>
-      <c r="M53" s="325">
+        <v>79649.720000000016</v>
+      </c>
+      <c r="L53" s="313"/>
+      <c r="M53" s="314">
         <f>N40+M40</f>
-        <v>1777410</v>
-      </c>
-      <c r="N53" s="326"/>
+        <v>2440411</v>
+      </c>
+      <c r="N53" s="315"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="327" t="s">
+      <c r="D54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="327"/>
+      <c r="E54" s="316"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
-        <v>1731189</v>
+        <v>2356249.2799999998</v>
       </c>
       <c r="I54" s="121"/>
       <c r="J54" s="122"/>
@@ -15855,22 +16038,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="328" t="s">
+      <c r="D55" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="328"/>
+      <c r="E55" s="317"/>
       <c r="F55" s="115">
-        <v>0</v>
-      </c>
-      <c r="I55" s="329" t="s">
+        <v>-2471332.31</v>
+      </c>
+      <c r="I55" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="330"/>
-      <c r="K55" s="331">
+      <c r="J55" s="319"/>
+      <c r="K55" s="320">
         <f>F57+F58+F59</f>
-        <v>1731189</v>
-      </c>
-      <c r="L55" s="332"/>
+        <v>214026.38999999972</v>
+      </c>
+      <c r="L55" s="321"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -15894,18 +16077,18 @@
       </c>
       <c r="F57" s="115">
         <f>SUM(F54:F56)</f>
-        <v>1731189</v>
+        <v>-115083.03000000026</v>
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="129" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="333">
+      <c r="K57" s="322">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="334"/>
+      <c r="L57" s="323"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -15915,27 +16098,29 @@
         <v>19</v>
       </c>
       <c r="F58" s="132">
-        <v>0</v>
+        <v>55373</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C59" s="133"/>
-      <c r="D59" s="310" t="s">
+      <c r="C59" s="133">
+        <v>44773</v>
+      </c>
+      <c r="D59" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="311"/>
+      <c r="E59" s="300"/>
       <c r="F59" s="134">
-        <v>0</v>
-      </c>
-      <c r="I59" s="312" t="s">
-        <v>168</v>
-      </c>
-      <c r="J59" s="313"/>
-      <c r="K59" s="314">
+        <v>273736.42</v>
+      </c>
+      <c r="I59" s="301" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" s="302"/>
+      <c r="K59" s="303">
         <f>K55+K57</f>
-        <v>1499023.09</v>
-      </c>
-      <c r="L59" s="314"/>
+        <v>-18139.520000000281</v>
+      </c>
+      <c r="L59" s="303"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -16079,18 +16264,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16100,9 +16273,21 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
-  <pageMargins left="0.32" right="0.26" top="0.37" bottom="0.37" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -16110,12 +16295,1240 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor rgb="FF99FF99"/>
+  </sheetPr>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="233" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="201" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="117"/>
+    <col min="10" max="11" width="17.140625" style="117" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" style="117"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="231"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="153" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="210" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="199" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="156" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="264">
+        <v>44746</v>
+      </c>
+      <c r="B3" s="265" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="266">
+        <v>129755.9</v>
+      </c>
+      <c r="D3" s="288"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="158">
+        <f>C3-E3</f>
+        <v>129755.9</v>
+      </c>
+      <c r="J3" s="132"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="267">
+        <v>44746</v>
+      </c>
+      <c r="B4" s="268" t="s">
+        <v>391</v>
+      </c>
+      <c r="C4" s="132">
+        <v>14947.2</v>
+      </c>
+      <c r="D4" s="288"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="196">
+        <f>C4-E4+F3</f>
+        <v>144703.1</v>
+      </c>
+      <c r="J4" s="266"/>
+    </row>
+    <row r="5" spans="1:10" s="35" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="267">
+        <v>44748</v>
+      </c>
+      <c r="B5" s="268" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" s="132">
+        <v>92642.6</v>
+      </c>
+      <c r="D5" s="288"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="196">
+        <f t="shared" ref="F5:F68" si="0">C5-E5+F4</f>
+        <v>237345.7</v>
+      </c>
+      <c r="J5" s="132"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="267">
+        <v>44749</v>
+      </c>
+      <c r="B6" s="268" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="132">
+        <v>69904.100000000006</v>
+      </c>
+      <c r="D6" s="288"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="196">
+        <f t="shared" si="0"/>
+        <v>307249.80000000005</v>
+      </c>
+      <c r="G6" s="162"/>
+      <c r="J6" s="132"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="267">
+        <v>44750</v>
+      </c>
+      <c r="B7" s="268" t="s">
+        <v>394</v>
+      </c>
+      <c r="C7" s="132">
+        <v>144242.76</v>
+      </c>
+      <c r="D7" s="288"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="196">
+        <f t="shared" si="0"/>
+        <v>451492.56000000006</v>
+      </c>
+      <c r="J7" s="132"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="267">
+        <v>44750</v>
+      </c>
+      <c r="B8" s="268" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="132">
+        <v>5072.6000000000004</v>
+      </c>
+      <c r="D8" s="269"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="196">
+        <f t="shared" si="0"/>
+        <v>456565.16000000003</v>
+      </c>
+      <c r="J8" s="132"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="267">
+        <v>44750</v>
+      </c>
+      <c r="B9" s="268" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="132">
+        <v>265.5</v>
+      </c>
+      <c r="D9" s="269"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="196">
+        <f t="shared" si="0"/>
+        <v>456830.66000000003</v>
+      </c>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="267">
+        <v>44751</v>
+      </c>
+      <c r="B10" s="268" t="s">
+        <v>397</v>
+      </c>
+      <c r="C10" s="132">
+        <v>119029.9</v>
+      </c>
+      <c r="D10" s="269"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="196">
+        <f t="shared" si="0"/>
+        <v>575860.56000000006</v>
+      </c>
+      <c r="J10" s="117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="267">
+        <v>44753</v>
+      </c>
+      <c r="B11" s="268" t="s">
+        <v>398</v>
+      </c>
+      <c r="C11" s="132">
+        <v>86612.94</v>
+      </c>
+      <c r="D11" s="269"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="196">
+        <f t="shared" si="0"/>
+        <v>662473.5</v>
+      </c>
+      <c r="J11" s="277">
+        <f>SUM(J3:J10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="267">
+        <v>44754</v>
+      </c>
+      <c r="B12" s="268" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" s="132">
+        <v>29055.5</v>
+      </c>
+      <c r="D12" s="269"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="196">
+        <f t="shared" si="0"/>
+        <v>691529</v>
+      </c>
+      <c r="G12" s="162"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="267">
+        <v>44755</v>
+      </c>
+      <c r="B13" s="268" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="132">
+        <v>87559.6</v>
+      </c>
+      <c r="D13" s="269"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="196">
+        <f t="shared" si="0"/>
+        <v>779088.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="267">
+        <v>44756</v>
+      </c>
+      <c r="B14" s="268" t="s">
+        <v>401</v>
+      </c>
+      <c r="C14" s="132">
+        <v>132564.79999999999</v>
+      </c>
+      <c r="D14" s="269"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="196">
+        <f t="shared" si="0"/>
+        <v>911653.39999999991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="267">
+        <v>44757</v>
+      </c>
+      <c r="B15" s="268" t="s">
+        <v>402</v>
+      </c>
+      <c r="C15" s="132">
+        <v>44983.4</v>
+      </c>
+      <c r="D15" s="269"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="196">
+        <f t="shared" si="0"/>
+        <v>956636.79999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="267">
+        <v>44758</v>
+      </c>
+      <c r="B16" s="268" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="132">
+        <v>155220.28</v>
+      </c>
+      <c r="D16" s="269"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="196">
+        <f t="shared" si="0"/>
+        <v>1111857.0799999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="267">
+        <v>44759</v>
+      </c>
+      <c r="B17" s="268" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" s="132">
+        <v>77061</v>
+      </c>
+      <c r="D17" s="269"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="196">
+        <f t="shared" si="0"/>
+        <v>1188918.0799999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="267">
+        <v>44760</v>
+      </c>
+      <c r="B18" s="268" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="132">
+        <v>78240.2</v>
+      </c>
+      <c r="D18" s="269"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="196">
+        <f t="shared" si="0"/>
+        <v>1267158.2799999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="267">
+        <v>44761</v>
+      </c>
+      <c r="B19" s="268" t="s">
+        <v>406</v>
+      </c>
+      <c r="C19" s="132">
+        <v>16361.3</v>
+      </c>
+      <c r="D19" s="269"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="196">
+        <f t="shared" si="0"/>
+        <v>1283519.5799999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="267">
+        <v>44762</v>
+      </c>
+      <c r="B20" s="268" t="s">
+        <v>407</v>
+      </c>
+      <c r="C20" s="132">
+        <v>162807.84</v>
+      </c>
+      <c r="D20" s="269"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="196">
+        <f t="shared" si="0"/>
+        <v>1446327.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="267">
+        <v>44763</v>
+      </c>
+      <c r="B21" s="268" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" s="132">
+        <v>144209.19</v>
+      </c>
+      <c r="D21" s="269"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="196">
+        <f t="shared" si="0"/>
+        <v>1590536.6099999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="267">
+        <v>44764</v>
+      </c>
+      <c r="B22" s="268" t="s">
+        <v>409</v>
+      </c>
+      <c r="C22" s="132">
+        <v>120958.88</v>
+      </c>
+      <c r="D22" s="269"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="196">
+        <f t="shared" si="0"/>
+        <v>1711495.4899999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="267">
+        <v>44765</v>
+      </c>
+      <c r="B23" s="268" t="s">
+        <v>410</v>
+      </c>
+      <c r="C23" s="132">
+        <v>135754.06</v>
+      </c>
+      <c r="D23" s="269"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="196">
+        <f t="shared" si="0"/>
+        <v>1847249.5499999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="267">
+        <v>44765</v>
+      </c>
+      <c r="B24" s="268" t="s">
+        <v>411</v>
+      </c>
+      <c r="C24" s="132">
+        <v>4200</v>
+      </c>
+      <c r="D24" s="269"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="196">
+        <f t="shared" si="0"/>
+        <v>1851449.5499999998</v>
+      </c>
+      <c r="G24" s="162"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="267">
+        <v>44767</v>
+      </c>
+      <c r="B25" s="268" t="s">
+        <v>412</v>
+      </c>
+      <c r="C25" s="132">
+        <v>100782.12</v>
+      </c>
+      <c r="D25" s="269"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="196">
+        <f t="shared" si="0"/>
+        <v>1952231.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="267">
+        <v>44769</v>
+      </c>
+      <c r="B26" s="268" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="132">
+        <v>159228.38</v>
+      </c>
+      <c r="D26" s="269"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="196">
+        <f t="shared" si="0"/>
+        <v>2111460.0499999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="267">
+        <v>44770</v>
+      </c>
+      <c r="B27" s="268" t="s">
+        <v>414</v>
+      </c>
+      <c r="C27" s="132">
+        <v>77241.66</v>
+      </c>
+      <c r="D27" s="269"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="196">
+        <f t="shared" si="0"/>
+        <v>2188701.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="267">
+        <v>44771</v>
+      </c>
+      <c r="B28" s="268" t="s">
+        <v>415</v>
+      </c>
+      <c r="C28" s="132">
+        <v>126836.5</v>
+      </c>
+      <c r="D28" s="269"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="196">
+        <f t="shared" si="0"/>
+        <v>2315538.21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="267">
+        <v>44771</v>
+      </c>
+      <c r="B29" s="268" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="132">
+        <v>49636.2</v>
+      </c>
+      <c r="D29" s="269"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="196">
+        <f t="shared" si="0"/>
+        <v>2365174.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="267">
+        <v>44772</v>
+      </c>
+      <c r="B30" s="268" t="s">
+        <v>417</v>
+      </c>
+      <c r="C30" s="132">
+        <v>106157.9</v>
+      </c>
+      <c r="D30" s="267"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="267"/>
+      <c r="B31" s="268"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="267"/>
+      <c r="B32" s="268"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+      <c r="G32" s="162"/>
+    </row>
+    <row r="33" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="267"/>
+      <c r="B33" s="268"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="267"/>
+      <c r="B34" s="268"/>
+      <c r="C34" s="132"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="267"/>
+      <c r="B35" s="268"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="267"/>
+      <c r="B36" s="268"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="269"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="267"/>
+      <c r="B37" s="268"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="269"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="267"/>
+      <c r="B38" s="268"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="267"/>
+      <c r="B39" s="268"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="269"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="267"/>
+      <c r="B40" s="268"/>
+      <c r="C40" s="132"/>
+      <c r="D40" s="269"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="267"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="132"/>
+      <c r="D41" s="269"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="269"/>
+      <c r="B42" s="270"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="269"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="163"/>
+      <c r="B43" s="160"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="164"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="166"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="86"/>
+      <c r="F44" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="164"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="164"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="166"/>
+      <c r="D47" s="159"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="164"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="166"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="164"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="166"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="86"/>
+      <c r="F49" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="164"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="166"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="164"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="166"/>
+      <c r="D51" s="159"/>
+      <c r="E51" s="86"/>
+      <c r="F51" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="164"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="166"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="164"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="166"/>
+      <c r="D53" s="159"/>
+      <c r="E53" s="86"/>
+      <c r="F53" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="164"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="166"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="164"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="164"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="164"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="86"/>
+      <c r="F57" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="164"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="166"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="86"/>
+      <c r="F58" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="164"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="166"/>
+      <c r="D59" s="159"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="164"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="159"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="164"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="159"/>
+      <c r="E61" s="86"/>
+      <c r="F61" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="167"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="169"/>
+      <c r="D62" s="170"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="167"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="169"/>
+      <c r="D63" s="170"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="167"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="169"/>
+      <c r="D64" s="170"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="167"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="170"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="167"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="169"/>
+      <c r="D66" s="170"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="167"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="169"/>
+      <c r="D67" s="170"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="164"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="166"/>
+      <c r="D68" s="171"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="196">
+        <f t="shared" si="0"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="164"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="166"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="196">
+        <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="164"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="171"/>
+      <c r="E70" s="86"/>
+      <c r="F70" s="196">
+        <f t="shared" si="1"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="164"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="166"/>
+      <c r="D71" s="171"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="196">
+        <f t="shared" si="1"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="164"/>
+      <c r="B72" s="165"/>
+      <c r="C72" s="166"/>
+      <c r="D72" s="171"/>
+      <c r="E72" s="86"/>
+      <c r="F72" s="196">
+        <f t="shared" si="1"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="164"/>
+      <c r="B73" s="165"/>
+      <c r="C73" s="166"/>
+      <c r="D73" s="171"/>
+      <c r="E73" s="86"/>
+      <c r="F73" s="196">
+        <f t="shared" si="1"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="164"/>
+      <c r="B74" s="165"/>
+      <c r="C74" s="166"/>
+      <c r="D74" s="171"/>
+      <c r="E74" s="86"/>
+      <c r="F74" s="196">
+        <f t="shared" si="1"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="164"/>
+      <c r="B75" s="165"/>
+      <c r="C75" s="166"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="86"/>
+      <c r="F75" s="196">
+        <f t="shared" si="1"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="164"/>
+      <c r="B76" s="165"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="196">
+        <f t="shared" si="1"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="164"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="171"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="196">
+        <f t="shared" si="1"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="172"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="34">
+        <v>0</v>
+      </c>
+      <c r="D78" s="174"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="196">
+        <f t="shared" si="1"/>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="212"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="250">
+        <f>SUM(C3:C78)</f>
+        <v>2471332.31</v>
+      </c>
+      <c r="D79" s="189"/>
+      <c r="E79" s="178">
+        <f>SUM(E3:E78)</f>
+        <v>0</v>
+      </c>
+      <c r="F79" s="179">
+        <f>F78</f>
+        <v>2471332.31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="170"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="170"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="234"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="234"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="234"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="234"/>
+      <c r="F85" s="117"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="234"/>
+      <c r="F86" s="117"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="234"/>
+      <c r="F87" s="117"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="234"/>
+      <c r="F88" s="117"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="234"/>
+      <c r="F89" s="117"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="234"/>
+      <c r="F90" s="117"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="234"/>
+      <c r="F91" s="117"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="234"/>
+      <c r="F92" s="117"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="234"/>
+      <c r="F93" s="117"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="234"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="234"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="234"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="117"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="234"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="234"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="234"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="234"/>
+      <c r="E100" s="117"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="234"/>
+      <c r="E101" s="117"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="234"/>
+      <c r="E102" s="117"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="234"/>
+      <c r="E103" s="117"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="234"/>
+      <c r="E104" s="117"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="234"/>
+      <c r="E105" s="117"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="234"/>
+      <c r="E106" s="117"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="234"/>
+      <c r="E107" s="117"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="234"/>
+      <c r="E108" s="117"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="234"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="234"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="234"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="234"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="234"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="234"/>
+    </row>
+    <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C115" s="180"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17941,23 +19354,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="297"/>
-      <c r="C1" s="299" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="326" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="298"/>
+      <c r="B2" s="325"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -17967,21 +19380,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="302"/>
+      <c r="B3" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="329"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="330" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="303"/>
+      <c r="I3" s="330"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="297" t="s">
         <v>38</v>
       </c>
     </row>
@@ -17996,14 +19409,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="H4" s="306" t="s">
+      <c r="F4" s="332"/>
+      <c r="H4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="307"/>
+      <c r="I4" s="334"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -18013,11 +19426,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="315" t="s">
+      <c r="P4" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="309"/>
+      <c r="Q4" s="305"/>
+      <c r="R4" s="298"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -19505,7 +20918,7 @@
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="319">
+      <c r="N40" s="308">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -19531,8 +20944,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="318"/>
-      <c r="N41" s="320"/>
+      <c r="M41" s="307"/>
+      <c r="N41" s="309"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -19747,29 +21160,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="321" t="s">
+      <c r="H53" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="322"/>
+      <c r="I53" s="311"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="323">
+      <c r="K53" s="312">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="324"/>
-      <c r="M53" s="325">
+      <c r="L53" s="313"/>
+      <c r="M53" s="314">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="326"/>
+      <c r="N53" s="315"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="327" t="s">
+      <c r="D54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="327"/>
+      <c r="E54" s="316"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -19780,22 +21193,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="328" t="s">
+      <c r="D55" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="328"/>
+      <c r="E55" s="317"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="329" t="s">
+      <c r="I55" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="330"/>
-      <c r="K55" s="331">
+      <c r="J55" s="319"/>
+      <c r="K55" s="320">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="332"/>
+      <c r="L55" s="321"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -19826,11 +21239,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="333">
+      <c r="K57" s="322">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="334"/>
+      <c r="L57" s="323"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -19847,22 +21260,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="310" t="s">
+      <c r="D59" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="311"/>
+      <c r="E59" s="300"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="312" t="s">
+      <c r="I59" s="301" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="313"/>
-      <c r="K59" s="314">
+      <c r="J59" s="302"/>
+      <c r="K59" s="303">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="314"/>
+      <c r="L59" s="303"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -20006,6 +21419,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -20015,18 +21440,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21331,23 +22744,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="297"/>
-      <c r="C1" s="299" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="326" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="298"/>
+      <c r="B2" s="325"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21357,21 +22770,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="302"/>
+      <c r="B3" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="329"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="330" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="303"/>
+      <c r="I3" s="330"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="297" t="s">
         <v>38</v>
       </c>
     </row>
@@ -21386,14 +22799,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="H4" s="306" t="s">
+      <c r="F4" s="332"/>
+      <c r="H4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="307"/>
+      <c r="I4" s="334"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -21403,11 +22816,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="315" t="s">
+      <c r="P4" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="309"/>
+      <c r="Q4" s="305"/>
+      <c r="R4" s="298"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -22905,11 +24318,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="317">
+      <c r="M40" s="306">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="319">
+      <c r="N40" s="308">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -22935,8 +24348,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="318"/>
-      <c r="N41" s="320"/>
+      <c r="M41" s="307"/>
+      <c r="N41" s="309"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -23079,29 +24492,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="321" t="s">
+      <c r="H49" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="322"/>
+      <c r="I49" s="311"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="323">
+      <c r="K49" s="312">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="324"/>
-      <c r="M49" s="325">
+      <c r="L49" s="313"/>
+      <c r="M49" s="314">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="326"/>
+      <c r="N49" s="315"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="327" t="s">
+      <c r="D50" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="327"/>
+      <c r="E50" s="316"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -23112,22 +24525,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="328" t="s">
+      <c r="D51" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="328"/>
+      <c r="E51" s="317"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="329" t="s">
+      <c r="I51" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="330"/>
-      <c r="K51" s="331">
+      <c r="J51" s="319"/>
+      <c r="K51" s="320">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="332"/>
+      <c r="L51" s="321"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -23158,11 +24571,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="333">
+      <c r="K53" s="322">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="334"/>
+      <c r="L53" s="323"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -23179,22 +24592,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="310" t="s">
+      <c r="D55" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="311"/>
+      <c r="E55" s="300"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="312" t="s">
+      <c r="I55" s="301" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="313"/>
-      <c r="K55" s="314">
+      <c r="J55" s="302"/>
+      <c r="K55" s="303">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="314"/>
+      <c r="L55" s="303"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -23341,18 +24754,6 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -23362,6 +24763,18 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24812,7 +26225,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -24836,23 +26249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="297"/>
-      <c r="C1" s="299" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="326" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="298"/>
+      <c r="B2" s="325"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -24862,21 +26275,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="302"/>
+      <c r="B3" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="329"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="330" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="303"/>
+      <c r="I3" s="330"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="297" t="s">
         <v>38</v>
       </c>
     </row>
@@ -24891,14 +26304,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="H4" s="306" t="s">
+      <c r="F4" s="332"/>
+      <c r="H4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="307"/>
+      <c r="I4" s="334"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -24908,11 +26321,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="315" t="s">
+      <c r="P4" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="309"/>
+      <c r="Q4" s="305"/>
+      <c r="R4" s="298"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -26556,11 +27969,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="317">
+      <c r="M40" s="306">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="319">
+      <c r="N40" s="308">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -26592,8 +28005,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="318"/>
-      <c r="N41" s="320"/>
+      <c r="M41" s="307"/>
+      <c r="N41" s="309"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -26828,29 +28241,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="321" t="s">
+      <c r="H53" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="322"/>
+      <c r="I53" s="311"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="323">
+      <c r="K53" s="312">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="324"/>
-      <c r="M53" s="325">
+      <c r="L53" s="313"/>
+      <c r="M53" s="314">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="326"/>
+      <c r="N53" s="315"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="327" t="s">
+      <c r="D54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="327"/>
+      <c r="E54" s="316"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -26861,22 +28274,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="328" t="s">
+      <c r="D55" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="328"/>
+      <c r="E55" s="317"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="329" t="s">
+      <c r="I55" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="330"/>
-      <c r="K55" s="331">
+      <c r="J55" s="319"/>
+      <c r="K55" s="320">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="332"/>
+      <c r="L55" s="321"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -26907,11 +28320,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="333">
+      <c r="K57" s="322">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="334"/>
+      <c r="L57" s="323"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -26928,22 +28341,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="310" t="s">
+      <c r="D59" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="311"/>
+      <c r="E59" s="300"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="312" t="s">
+      <c r="I59" s="301" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="313"/>
-      <c r="K59" s="314">
+      <c r="J59" s="302"/>
+      <c r="K59" s="303">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="314"/>
+      <c r="L59" s="303"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -27090,18 +28503,6 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -27111,6 +28512,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28588,7 +30001,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="F29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="H67" sqref="H67"/>
@@ -28614,23 +30027,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="297"/>
-      <c r="C1" s="299" t="s">
+      <c r="B1" s="324"/>
+      <c r="C1" s="326" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="298"/>
+      <c r="B2" s="325"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28640,21 +30053,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="301" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="302"/>
+      <c r="B3" s="328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="329"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="330" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="303"/>
+      <c r="I3" s="330"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="308" t="s">
+      <c r="R3" s="297" t="s">
         <v>38</v>
       </c>
     </row>
@@ -28669,14 +30082,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="304" t="s">
+      <c r="E4" s="331" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="305"/>
-      <c r="H4" s="306" t="s">
+      <c r="F4" s="332"/>
+      <c r="H4" s="333" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="307"/>
+      <c r="I4" s="334"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -28686,11 +30099,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="315" t="s">
+      <c r="P4" s="304" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="316"/>
-      <c r="R4" s="309"/>
+      <c r="Q4" s="305"/>
+      <c r="R4" s="298"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -30254,11 +31667,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="317">
+      <c r="M40" s="306">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="319">
+      <c r="N40" s="308">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -30284,8 +31697,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="318"/>
-      <c r="N41" s="320"/>
+      <c r="M41" s="307"/>
+      <c r="N41" s="309"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -30500,29 +31913,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="321" t="s">
+      <c r="H53" s="310" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="322"/>
+      <c r="I53" s="311"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="323">
+      <c r="K53" s="312">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="324"/>
-      <c r="M53" s="325">
+      <c r="L53" s="313"/>
+      <c r="M53" s="314">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="326"/>
+      <c r="N53" s="315"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="327" t="s">
+      <c r="D54" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="327"/>
+      <c r="E54" s="316"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -30533,22 +31946,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="328" t="s">
+      <c r="D55" s="317" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="328"/>
+      <c r="E55" s="317"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="329" t="s">
+      <c r="I55" s="318" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="330"/>
-      <c r="K55" s="331">
+      <c r="J55" s="319"/>
+      <c r="K55" s="320">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="332"/>
+      <c r="L55" s="321"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -30579,11 +31992,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="333">
+      <c r="K57" s="322">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="334"/>
+      <c r="L57" s="323"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -30600,22 +32013,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="310" t="s">
+      <c r="D59" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="311"/>
+      <c r="E59" s="300"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="312" t="s">
+      <c r="I59" s="301" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="313"/>
-      <c r="K59" s="314">
+      <c r="J59" s="302"/>
+      <c r="K59" s="303">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="314"/>
+      <c r="L59" s="303"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -30762,6 +32175,18 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -30771,18 +32196,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #07 JULIO  2022/BALANCE   HERRADURA  JULIO      2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="10305" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="E N E R O    2 0 2 2         " sheetId="1" r:id="rId1"/>
@@ -3590,6 +3590,51 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="54" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="44" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3671,53 +3716,8 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="14" fillId="0" borderId="60" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7020,23 +7020,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="324"/>
-      <c r="C1" s="326" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="325"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -7046,21 +7046,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="329"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="330" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="330"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="297" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7075,14 +7075,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="332"/>
-      <c r="H4" s="333" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="334"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -7092,11 +7092,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="304" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="305"/>
-      <c r="R4" s="298"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -8597,11 +8597,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="306">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>1527030</v>
       </c>
-      <c r="N40" s="308">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>50013</v>
       </c>
@@ -8627,8 +8627,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="307"/>
-      <c r="N41" s="309"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -8843,29 +8843,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="310" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="311"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="312">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>50143.28</v>
       </c>
-      <c r="L53" s="313"/>
-      <c r="M53" s="314">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>1577043</v>
       </c>
-      <c r="N53" s="315"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="316" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="316"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1561421.72</v>
@@ -8876,22 +8876,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="317" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="317"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-1419082.77</v>
       </c>
-      <c r="I55" s="318" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="319"/>
-      <c r="K55" s="320">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>296963.46999999997</v>
       </c>
-      <c r="L55" s="321"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -8922,11 +8922,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="322">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-221059.7</v>
       </c>
-      <c r="L57" s="323"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -8943,22 +8943,22 @@
       <c r="C59" s="133">
         <v>44591</v>
       </c>
-      <c r="D59" s="299" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="300"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>154314.51999999999</v>
       </c>
-      <c r="I59" s="301" t="s">
+      <c r="I59" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="302"/>
-      <c r="K59" s="303">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>75903.76999999996</v>
       </c>
-      <c r="L59" s="303"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -9102,12 +9102,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="D59:E59"/>
     <mergeCell ref="I59:J59"/>
@@ -9123,6 +9117,12 @@
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K57:L57"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -10551,7 +10551,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
@@ -10575,23 +10575,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="324"/>
-      <c r="C1" s="326" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>326</v>
       </c>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="325"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -10601,21 +10601,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="329"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="330" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="330"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="297" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10630,14 +10630,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="332"/>
-      <c r="H4" s="333" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="334"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -10647,11 +10647,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="304" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="305"/>
-      <c r="R4" s="298"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -12228,11 +12228,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="306">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>2772689</v>
       </c>
-      <c r="N40" s="308">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>107354</v>
       </c>
@@ -12264,8 +12264,8 @@
       <c r="L41" s="75">
         <v>638.99</v>
       </c>
-      <c r="M41" s="307"/>
-      <c r="N41" s="309"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -12354,7 +12354,7 @@
       <c r="J45" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="K45" s="336" t="s">
+      <c r="K45" s="297" t="s">
         <v>378</v>
       </c>
       <c r="L45" s="80">
@@ -12511,29 +12511,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="310" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="311"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="312">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>60691.69</v>
       </c>
-      <c r="L53" s="313"/>
-      <c r="M53" s="314">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>2880043</v>
       </c>
-      <c r="N53" s="315"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="316" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="316"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2844548.31</v>
@@ -12544,22 +12544,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="317" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="317"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-2747780.48</v>
       </c>
-      <c r="I55" s="318" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="319"/>
-      <c r="K55" s="320">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>375154.74000000011</v>
       </c>
-      <c r="L55" s="321"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -12590,11 +12590,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="322">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-149938.81</v>
       </c>
-      <c r="L57" s="323"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -12611,22 +12611,22 @@
       <c r="C59" s="133">
         <v>44745</v>
       </c>
-      <c r="D59" s="299" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="300"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>232165.91</v>
       </c>
-      <c r="I59" s="301" t="s">
+      <c r="I59" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="302"/>
-      <c r="K59" s="303">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>225215.93000000011</v>
       </c>
-      <c r="L59" s="303"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -12773,6 +12773,18 @@
     <sortCondition ref="B7:B9"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -12782,18 +12794,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.38" right="0.17" top="0.4" bottom="0.34" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -14163,7 +14163,7 @@
   </sheetPr>
   <dimension ref="A1:U81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="Q53" sqref="Q53"/>
     </sheetView>
   </sheetViews>
@@ -14187,23 +14187,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="324"/>
-      <c r="C1" s="326" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="325"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -14213,21 +14213,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="329"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="330" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="330"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="297" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -14242,14 +14242,14 @@
       <c r="D4" s="18">
         <v>44745</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="332"/>
-      <c r="H4" s="333" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="334"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -14259,11 +14259,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="304" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="305"/>
-      <c r="R4" s="298"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -15630,10 +15630,10 @@
       <c r="G36" s="2"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
-      <c r="J36" s="338" t="s">
+      <c r="J36" s="299" t="s">
         <v>419</v>
       </c>
-      <c r="K36" s="337" t="s">
+      <c r="K36" s="298" t="s">
         <v>418</v>
       </c>
       <c r="L36" s="80">
@@ -15667,7 +15667,7 @@
       <c r="J37" s="73" t="s">
         <v>419</v>
       </c>
-      <c r="K37" s="339" t="s">
+      <c r="K37" s="300" t="s">
         <v>420</v>
       </c>
       <c r="L37" s="80">
@@ -15755,11 +15755,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="306">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>2373103</v>
       </c>
-      <c r="N40" s="308">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>67308</v>
       </c>
@@ -15789,8 +15789,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="307"/>
-      <c r="N41" s="309"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -16005,29 +16005,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="310" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="311"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="312">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>79649.720000000016</v>
       </c>
-      <c r="L53" s="313"/>
-      <c r="M53" s="314">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>2440411</v>
       </c>
-      <c r="N53" s="315"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="316" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="316"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2356249.2799999998</v>
@@ -16038,22 +16038,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="317" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="317"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-2471332.31</v>
       </c>
-      <c r="I55" s="318" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="319"/>
-      <c r="K55" s="320">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>214026.38999999972</v>
       </c>
-      <c r="L55" s="321"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -16084,11 +16084,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="322">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-232165.91</v>
       </c>
-      <c r="L57" s="323"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -16105,22 +16105,22 @@
       <c r="C59" s="133">
         <v>44773</v>
       </c>
-      <c r="D59" s="299" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="300"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>273736.42</v>
       </c>
-      <c r="I59" s="301" t="s">
+      <c r="I59" s="316" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="302"/>
-      <c r="K59" s="303">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>-18139.520000000281</v>
       </c>
-      <c r="L59" s="303"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -16264,6 +16264,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -16273,18 +16285,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.27559055118110237" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="60" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19354,23 +19354,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="324"/>
-      <c r="C1" s="326" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="325"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -19380,21 +19380,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="329"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="330" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="330"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="297" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -19409,14 +19409,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="332"/>
-      <c r="H4" s="333" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="334"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -19426,11 +19426,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="304" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="305"/>
-      <c r="R4" s="298"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -20914,11 +20914,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="80"/>
-      <c r="M40" s="335">
+      <c r="M40" s="339">
         <f>SUM(M5:M39)</f>
         <v>1636108</v>
       </c>
-      <c r="N40" s="308">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>55675</v>
       </c>
@@ -20944,8 +20944,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="76"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="307"/>
-      <c r="N41" s="309"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -21160,29 +21160,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="310" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="311"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="312">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>45634.280000000006</v>
       </c>
-      <c r="L53" s="313"/>
-      <c r="M53" s="314">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>1691783</v>
       </c>
-      <c r="N53" s="315"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="316" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="316"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>1686442.72</v>
@@ -21193,22 +21193,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="317" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="317"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-1631962.77</v>
       </c>
-      <c r="I55" s="318" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="319"/>
-      <c r="K55" s="320">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>238822.13999999996</v>
       </c>
-      <c r="L55" s="321"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -21239,11 +21239,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="322">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-154314.51999999999</v>
       </c>
-      <c r="L57" s="323"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -21260,22 +21260,22 @@
       <c r="C59" s="133">
         <v>44619</v>
       </c>
-      <c r="D59" s="299" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="300"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>184342.19</v>
       </c>
-      <c r="I59" s="301" t="s">
+      <c r="I59" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="302"/>
-      <c r="K59" s="303">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>84507.619999999966</v>
       </c>
-      <c r="L59" s="303"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -21419,18 +21419,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -21440,6 +21428,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -22744,23 +22744,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="324"/>
-      <c r="C1" s="326" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="325"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22770,21 +22770,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="329"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="330" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="330"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="297" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -22799,14 +22799,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="332"/>
-      <c r="H4" s="333" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="334"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -22816,11 +22816,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="304" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="305"/>
-      <c r="R4" s="298"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -24318,11 +24318,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="89"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="306">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>1793435</v>
       </c>
-      <c r="N40" s="308">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>63995</v>
       </c>
@@ -24348,8 +24348,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="307"/>
-      <c r="N41" s="309"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -24492,29 +24492,29 @@
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
       <c r="C49" s="1"/>
-      <c r="H49" s="310" t="s">
+      <c r="H49" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I49" s="311"/>
+      <c r="I49" s="326"/>
       <c r="J49" s="119"/>
-      <c r="K49" s="312">
+      <c r="K49" s="327">
         <f>I47+L47</f>
         <v>90434.03</v>
       </c>
-      <c r="L49" s="313"/>
-      <c r="M49" s="314">
+      <c r="L49" s="328"/>
+      <c r="M49" s="329">
         <f>N40+M40</f>
         <v>1857430</v>
       </c>
-      <c r="N49" s="315"/>
+      <c r="N49" s="330"/>
       <c r="P49" s="34"/>
       <c r="Q49" s="9"/>
     </row>
     <row r="50" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="316" t="s">
+      <c r="D50" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="316"/>
+      <c r="E50" s="331"/>
       <c r="F50" s="120">
         <f>F47-K49-C47</f>
         <v>1824260.97</v>
@@ -24525,22 +24525,22 @@
       <c r="Q50" s="9"/>
     </row>
     <row r="51" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D51" s="317" t="s">
+      <c r="D51" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="317"/>
+      <c r="E51" s="332"/>
       <c r="F51" s="115">
         <v>-1848136.64</v>
       </c>
-      <c r="I51" s="318" t="s">
+      <c r="I51" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J51" s="319"/>
-      <c r="K51" s="320">
+      <c r="J51" s="334"/>
+      <c r="K51" s="335">
         <f>F53+F54+F55</f>
         <v>195541.70000000007</v>
       </c>
-      <c r="L51" s="321"/>
+      <c r="L51" s="336"/>
       <c r="P51" s="34"/>
       <c r="Q51" s="9"/>
     </row>
@@ -24571,11 +24571,11 @@
         <v>17</v>
       </c>
       <c r="J53" s="130"/>
-      <c r="K53" s="322">
+      <c r="K53" s="337">
         <f>-C4</f>
         <v>-184342.19</v>
       </c>
-      <c r="L53" s="323"/>
+      <c r="L53" s="338"/>
     </row>
     <row r="54" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="131" t="s">
@@ -24592,22 +24592,22 @@
       <c r="C55" s="133">
         <v>44647</v>
       </c>
-      <c r="D55" s="299" t="s">
+      <c r="D55" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="300"/>
+      <c r="E55" s="315"/>
       <c r="F55" s="134">
         <v>219417.37</v>
       </c>
-      <c r="I55" s="301" t="s">
+      <c r="I55" s="316" t="s">
         <v>226</v>
       </c>
-      <c r="J55" s="302"/>
-      <c r="K55" s="303">
+      <c r="J55" s="317"/>
+      <c r="K55" s="318">
         <f>K51+K53</f>
         <v>11199.510000000068</v>
       </c>
-      <c r="L55" s="303"/>
+      <c r="L55" s="318"/>
     </row>
     <row r="56" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C56" s="135"/>
@@ -24754,6 +24754,18 @@
     <sortCondition ref="J34:J38"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -24763,18 +24775,6 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="K49:L49"/>
     <mergeCell ref="M49:N49"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26249,23 +26249,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="324"/>
-      <c r="C1" s="326" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>225</v>
       </c>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="325"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -26275,21 +26275,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="329"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="330" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="330"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="297" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -26304,14 +26304,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="332"/>
-      <c r="H4" s="333" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="334"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -26321,11 +26321,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="304" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="305"/>
-      <c r="R4" s="298"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -27969,11 +27969,11 @@
         <f>927.48+128</f>
         <v>1055.48</v>
       </c>
-      <c r="M40" s="306">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>2146671</v>
       </c>
-      <c r="N40" s="308">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>68590</v>
       </c>
@@ -28005,8 +28005,8 @@
       <c r="L41" s="75">
         <v>1195.68</v>
       </c>
-      <c r="M41" s="307"/>
-      <c r="N41" s="309"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -28241,29 +28241,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="310" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="311"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="312">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>91272.77</v>
       </c>
-      <c r="L53" s="313"/>
-      <c r="M53" s="314">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>2215261</v>
       </c>
-      <c r="N53" s="315"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="316" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="316"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2179879.23</v>
@@ -28274,22 +28274,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="317" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="317"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-2227493.48</v>
       </c>
-      <c r="I55" s="318" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="319"/>
-      <c r="K55" s="320">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>261521.34000000003</v>
       </c>
-      <c r="L55" s="321"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -28320,11 +28320,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="322">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-219417.37</v>
       </c>
-      <c r="L57" s="323"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -28341,22 +28341,22 @@
       <c r="C59" s="133">
         <v>44682</v>
       </c>
-      <c r="D59" s="299" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="300"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>297874.59000000003</v>
       </c>
-      <c r="I59" s="301" t="s">
+      <c r="I59" s="316" t="s">
         <v>168</v>
       </c>
-      <c r="J59" s="302"/>
-      <c r="K59" s="303">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>42103.97000000003</v>
       </c>
-      <c r="L59" s="303"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -28503,6 +28503,18 @@
     <sortCondition ref="J40:J44"/>
   </sortState>
   <mergeCells count="21">
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -28512,18 +28524,6 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30027,23 +30027,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="324"/>
-      <c r="C1" s="326" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="303" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="325"/>
+      <c r="B2" s="302"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -30053,21 +30053,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="328" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="329"/>
+      <c r="B3" s="305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="306"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="330" t="s">
+      <c r="H3" s="307" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="330"/>
+      <c r="I3" s="307"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="R3" s="297" t="s">
+      <c r="R3" s="312" t="s">
         <v>38</v>
       </c>
     </row>
@@ -30082,14 +30082,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="331" t="s">
+      <c r="E4" s="308" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="332"/>
-      <c r="H4" s="333" t="s">
+      <c r="F4" s="309"/>
+      <c r="H4" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="334"/>
+      <c r="I4" s="311"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
       <c r="L4" s="21"/>
@@ -30099,11 +30099,11 @@
       <c r="N4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="304" t="s">
+      <c r="P4" s="319" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="305"/>
-      <c r="R4" s="298"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="313"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
@@ -31667,11 +31667,11 @@
       <c r="J40" s="73"/>
       <c r="K40" s="76"/>
       <c r="L40" s="75"/>
-      <c r="M40" s="306">
+      <c r="M40" s="321">
         <f>SUM(M5:M39)</f>
         <v>2144215</v>
       </c>
-      <c r="N40" s="308">
+      <c r="N40" s="323">
         <f>SUM(N5:N39)</f>
         <v>62525</v>
       </c>
@@ -31697,8 +31697,8 @@
       <c r="J41" s="73"/>
       <c r="K41" s="245"/>
       <c r="L41" s="75"/>
-      <c r="M41" s="307"/>
-      <c r="N41" s="309"/>
+      <c r="M41" s="322"/>
+      <c r="N41" s="324"/>
       <c r="P41" s="34"/>
       <c r="Q41" s="9"/>
     </row>
@@ -31913,29 +31913,29 @@
       <c r="A53" s="117"/>
       <c r="B53" s="118"/>
       <c r="C53" s="1"/>
-      <c r="H53" s="310" t="s">
+      <c r="H53" s="325" t="s">
         <v>12</v>
       </c>
-      <c r="I53" s="311"/>
+      <c r="I53" s="326"/>
       <c r="J53" s="119"/>
-      <c r="K53" s="312">
+      <c r="K53" s="327">
         <f>I51+L51</f>
         <v>51231.42</v>
       </c>
-      <c r="L53" s="313"/>
-      <c r="M53" s="314">
+      <c r="L53" s="328"/>
+      <c r="M53" s="329">
         <f>N40+M40</f>
         <v>2206740</v>
       </c>
-      <c r="N53" s="315"/>
+      <c r="N53" s="330"/>
       <c r="P53" s="34"/>
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="316" t="s">
+      <c r="D54" s="331" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="316"/>
+      <c r="E54" s="331"/>
       <c r="F54" s="120">
         <f>F51-K53-C51</f>
         <v>2189405.58</v>
@@ -31946,22 +31946,22 @@
       <c r="Q54" s="9"/>
     </row>
     <row r="55" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D55" s="317" t="s">
+      <c r="D55" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="317"/>
+      <c r="E55" s="332"/>
       <c r="F55" s="115">
         <v>-2251924.65</v>
       </c>
-      <c r="I55" s="318" t="s">
+      <c r="I55" s="333" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="319"/>
-      <c r="K55" s="320">
+      <c r="J55" s="334"/>
+      <c r="K55" s="335">
         <f>F57+F58+F59</f>
         <v>112552.74000000017</v>
       </c>
-      <c r="L55" s="321"/>
+      <c r="L55" s="336"/>
       <c r="P55" s="34"/>
       <c r="Q55" s="9"/>
     </row>
@@ -31992,11 +31992,11 @@
         <v>17</v>
       </c>
       <c r="J57" s="130"/>
-      <c r="K57" s="322">
+      <c r="K57" s="337">
         <f>-C4</f>
         <v>-297874.59000000003</v>
       </c>
-      <c r="L57" s="323"/>
+      <c r="L57" s="338"/>
     </row>
     <row r="58" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="131" t="s">
@@ -32013,22 +32013,22 @@
       <c r="C59" s="133">
         <v>44710</v>
       </c>
-      <c r="D59" s="299" t="s">
+      <c r="D59" s="314" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="300"/>
+      <c r="E59" s="315"/>
       <c r="F59" s="134">
         <v>149938.81</v>
       </c>
-      <c r="I59" s="301" t="s">
+      <c r="I59" s="316" t="s">
         <v>325</v>
       </c>
-      <c r="J59" s="302"/>
-      <c r="K59" s="303">
+      <c r="J59" s="317"/>
+      <c r="K59" s="318">
         <f>K55+K57</f>
         <v>-185321.84999999986</v>
       </c>
-      <c r="L59" s="303"/>
+      <c r="L59" s="318"/>
     </row>
     <row r="60" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C60" s="135"/>
@@ -32175,18 +32175,6 @@
     <sortCondition ref="J35:J40"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M40:M41"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -32196,6 +32184,18 @@
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="K53:L53"/>
     <mergeCell ref="M53:N53"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
